--- a/models/astra-v3/training/dataset-clean-injury.xlsx
+++ b/models/astra-v3/training/dataset-clean-injury.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="430">
   <si>
     <t>Tag</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Context Set</t>
   </si>
   <si>
-    <t>Nasal Congestion</t>
+    <t>Nasal congestion</t>
   </si>
   <si>
     <t>injury</t>
@@ -46,7 +46,8 @@
     <t>Nasal congestion occurs when the tissues lining the nose become swollen due to inflamed blood vessels, often caused by colds, flu, or allergies. Symptoms include difficulty breathing through the nose, runny nose, sneezing, and sometimes headache. It can lead to sinusitis or ear infections if left untreated.</t>
   </si>
   <si>
-    <t>How to relieve nasal congestion?
+    <t>Nasal congestion
+How to relieve nasal congestion?
 What to do for a stuffy nose?
 Best way to clear nasal congestion?
 Nasal congestion treatment advice?
@@ -80,13 +81,14 @@
     </r>
   </si>
   <si>
-    <t>Baradong Ilong</t>
+    <t>Baradong ilong</t>
   </si>
   <si>
     <t>Ang baradong ilong ay nangyayari kapag ang mga tisyu sa loob ng ilong ay namamaga dahil sa pamamaga ng mga daluyan ng dugo, na kadalasang dulot ng sipon, trangkaso, o alerhiya. Ang mga sintomas ay kinabibilangan ng hirap sa paghinga sa pamamagitan ng ilong, sipon, pagbahing, at minsan ay sakit ng ulo. Maaari itong magdulot ng sinusitis o impeksyon sa tainga kung hindi agad magagamot.</t>
   </si>
   <si>
-    <t>Paano maibsan ang baradong ilong?
+    <t>Baradong ilong
+Paano maibsan ang baradong ilong?
 Ano ang gagawin sa baradong ilong?
 Pinakamabisang paraan para maalis ang baradong ilong?
 Payo sa paggamot ng baradong ilong?
@@ -115,13 +117,11 @@
     <t>Cough</t>
   </si>
   <si>
-    <t>Injury</t>
-  </si>
-  <si>
     <t>A cough is a reflex action to clear your airways of mucus, irritants, or foreign particles. It can be caused by colds, flu, allergies, or respiratory infections. Symptoms include a dry or productive cough, chest discomfort, and sometimes a sore throat. Persistent coughing can disrupt daily activities and sleep.</t>
   </si>
   <si>
-    <t>How to treat a cough?
+    <t>Cough
+How to treat a cough?
 What to do for a cough?
 Best way to stop coughing?
 Cough treatment advice?
@@ -157,7 +157,8 @@
     <t>Ang ubo ay isang reflex action upang linisin ang iyong mga daanan ng hangin mula sa plema, irritants, o mga banyagang particle. Maaari itong sanhi ng sipon, trangkaso, alerhiya, o impeksyon sa respiratory system. Ang mga sintomas ay kinabibilangan ng tuyong ubo o may plema, pananakit ng dibdib, at minsan ay pananakit ng lalamunan. Ang tuloy-tuloy na pag-ubo ay maaaring makaabala sa pang-araw-araw na gawain at pagtulog.</t>
   </si>
   <si>
-    <t>Paano gamutin ang ubo?
+    <t>Ubo
+Paano gamutin ang ubo?
 Ano ang gagawin sa ubo?
 Pinakamabisang paraan para matigil ang pag-ubo?
 Payo sa paggamot ng ubo?
@@ -186,13 +187,14 @@
     </r>
   </si>
   <si>
-    <t>Abdominal Pain</t>
+    <t>Abdominal pain</t>
   </si>
   <si>
     <t>Abdominal pain refers to discomfort or other uncomfortable sensations that you feel in your belly area. It can be caused by various factors such as indigestion, gas, constipation, or more serious conditions like appendicitis or gallstones. Symptoms may include cramping, bloating, and sharp or dull pain. Persistent or severe abdominal pain should be evaluated by a healthcare provider.</t>
   </si>
   <si>
-    <t>How to treat abdominal pain?
+    <t>Abdominal pain
+How to treat abdominal pain?
 What to do for stomach pain?
 Best way to relieve abdominal pain?
 Abdominal pain treatment advice?
@@ -226,10 +228,14 @@
     </r>
   </si>
   <si>
+    <t>Pananakit ng tiyan</t>
+  </si>
+  <si>
     <t>Ang pananakit ng tiyan ay tumutukoy sa kakulangan sa ginhawa o iba pang hindi komportableng pakiramdam na nararamdaman mo sa iyong tiyan. Maaari itong sanhi ng iba't ibang salik tulad ng hindi pagkatunaw ng pagkain, hangin, pagtitibi, o mas seryosong kondisyon tulad ng appendicitis o gallstones. Ang mga sintomas ay maaaring kabilang ang paghilab, kabag, at matalim o mapurol na sakit. Ang tuloy-tuloy o matinding pananakit ng tiyan ay dapat suriin ng isang tagapagbigay ng pangangalagang pangkalusugan.</t>
   </si>
   <si>
-    <t>Paano gamutin ang pananakit ng tiyan?
+    <t>Pananakit ng tiyan
+Paano gamutin ang pananakit ng tiyan?
 Ano ang gagawin sa pananakit ng tiyan?
 Pinakamabisang paraan para maibsan ang pananakit ng tiyan?
 Payo sa paggamot ng pananakit ng tiyan?
@@ -264,13 +270,14 @@
     </r>
   </si>
   <si>
-    <t>Broken Toe</t>
+    <t>Broken toe</t>
   </si>
   <si>
     <t>A broken toe occurs when one of the bones in your toe fractures, often due to injury or trauma. Symptoms include pain, swelling, bruising, and difficulty walking. In severe cases, the toe may appear deformed or out of place. It's important to seek medical attention to ensure proper healing and avoid complications.", "fil": "Ang nabaling daliri sa paa ay nangyayari kapag ang isa sa mga buto sa iyong daliri sa paa ay nabali, kadalasan dahil sa pinsala o trauma. Ang mga sintomas ay kinabibilangan ng sakit, pamamaga, pasa, at kahirapan sa paglakad. Sa malubhang mga kaso, ang daliri sa paa ay maaaring magmukhang deformed o wala sa lugar. Mahalaga ang paghingi ng medikal na tulong upang matiyak ang tamang paggaling at maiwasan ang mga komplikasyon.</t>
   </si>
   <si>
-    <t>How to treat a broken toe?
+    <t>Broken toe
+How to treat a broken toe?
 What to do for a broken toe?
 Best way to heal a broken toe?
 Broken toe treatment advice?
@@ -305,13 +312,14 @@
     </r>
   </si>
   <si>
-    <t>Daliri ng Paa na Nasira</t>
+    <t>Daliri ng paa na nasira</t>
   </si>
   <si>
     <t>Ang nabaling daliri sa paa ay nangyayari kapag ang isa sa mga buto sa iyong daliri sa paa ay nabali, kadalasan dahil sa pinsala o trauma. Ang mga sintomas ay kinabibilangan ng sakit, pamamaga, pasa, at kahirapan sa paglakad. Sa malubhang mga kaso, ang daliri sa paa ay maaaring magmukhang deformed o wala sa lugar. Mahalaga ang paghingi ng medikal na tulong upang matiyak ang tamang paggaling at maiwasan ang mga komplikasyon.</t>
   </si>
   <si>
-    <t>Paano gamutin ang nabaling daliri sa paa?
+    <t>Daliri ng paa na nasira
+Paano gamutin ang nabaling daliri sa paa?
 Ano ang gagawin sa nabaling daliri sa paa?
 Pinakamabisang paraan para gumaling ang nabaling daliri sa paa?
 Payo sa paggamot ng nabaling daliri sa paa?
@@ -352,7 +360,8 @@
     <t>Choking occurs when an object blocks the airway, preventing air from reaching the lungs. Symptoms include inability to speak, difficulty breathing, and coughing. Immediate action is required to clear the airway and restore normal breathing. The Heimlich maneuver is a common technique used to dislodge the object.</t>
   </si>
   <si>
-    <t>What to do if someone is choking?
+    <t>Choking
+What to do if someone is choking?
 How to help someone who is choking?
 Choking first aid steps?
 Best way to stop choking?
@@ -388,7 +397,8 @@
     <t>Ang pagsakal ay nangyayari kapag ang isang bagay ay humarang sa daanan ng hangin, na pumipigil sa pagpasok ng hangin sa mga baga. Ang mga sintomas ay kinabibilangan ng hindi makapagsalita, hirap sa paghinga, at pag-ubo. Kinakailangan ang agarang aksyon upang maalis ang bara at maibalik ang normal na paghinga. Ang Heimlich maneuver ay isang karaniwang teknik na ginagamit upang alisin ang bagay.</t>
   </si>
   <si>
-    <t>Paano tulungan ang nasasakal?
+    <t>Mabulunan
+Paano tulungan ang nasasakal?
 Ano ang gagawin kung may nasasakal?
 Mga hakbang sa first aid para sa nasasakal?
 Pinakamabisang paraan para matigil ang pagsakal?
@@ -426,7 +436,8 @@
     <t>Diarrhea is characterized by frequent, loose, or watery bowel movements. It can be caused by infections, food intolerances, or digestive disorders. Symptoms include abdominal cramps, bloating, and urgency to have a bowel movement. Staying hydrated and avoiding certain foods can help manage symptoms.</t>
   </si>
   <si>
-    <t xml:space="preserve">How to treat diarrhea?
+    <t>Diarrhea
+How to treat diarrhea?
 What to do for diarrhea?
 Best way to stop diarrhea?
 Diarrhea treatment advice?
@@ -435,8 +446,7 @@
 How can I stop diarrhea quickly?
 Remedies for diarrhea?
 How to soothe diarrhea?
-Tips for relieving diarrhea?
-</t>
+Tips for relieving diarrhea?</t>
   </si>
   <si>
     <t>Stay hydrated by drinking plenty of fluids like water or an oral rehydration solution. Avoid solid foods until the symptoms improve. Over-the-counter anti-diarrheal medications can be used, but consult a healthcare provider if symptoms persist.
@@ -468,7 +478,8 @@
     <t>Ang pagtatae ay nailalarawan sa pamamagitan ng madalas, maluwag, o matubig na pagdumi. Maaari itong sanhi ng mga impeksyon, hindi pagtanggap ng pagkain, o mga sakit sa pagtunaw. Ang mga sintomas ay kinabibilangan ng pananakit ng tiyan, kabag, at kagyat na pagdumi. Ang pananatiling hydrated at pag-iwas sa ilang pagkain ay makakatulong sa pamamahala ng mga sintomas.</t>
   </si>
   <si>
-    <t>Paano gamutin ang pagtatae?
+    <t>Pagtatae
+Paano gamutin ang pagtatae?
 Ano ang gagawin sa pagtatae?
 Pinakamabisang paraan para matigil ang pagtatae?
 Payo sa paggamot ng pagtatae?
@@ -503,13 +514,14 @@
     </r>
   </si>
   <si>
-    <t>Heat Exhaustion</t>
+    <t>Heat exhaustion</t>
   </si>
   <si>
     <t>Heat exhaustion occurs when your body overheats due to prolonged exposure to high temperatures, often combined with dehydration. Symptoms include heavy sweating, weakness, dizziness, nausea, and headache. Immediate treatment is crucial to prevent progression to heat stroke, which is a medical emergency.</t>
   </si>
   <si>
-    <t>How to treat heat exhaustion?
+    <t>Heat exhaustion
+How to treat heat exhaustion?
 What to do for heat exhaustion?
 Best way to recover from heat exhaustion?
 Heat exhaustion treatment advice?
@@ -543,23 +555,23 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">
-Pagkapagod sa Init</t>
+    <t>Pagkapagod sa init</t>
   </si>
   <si>
     <t>Ang heat exhaustion ay nangyayari kapag ang iyong katawan ay sobrang init dahil sa matagal na pagkakalantad sa mataas na temperatura, kadalasang sinasabayan ng dehydration. Ang mga sintomas ay kinabibilangan ng labis na pagpapawis, panghihina, pagkahilo, pagduduwal, at sakit ng ulo. Ang agarang paggamot ay mahalaga upang maiwasan ang paglala sa heat stroke, na isang medikal na emerhensiya.</t>
   </si>
   <si>
-    <t>Paano gamutin ang heat exhaustion?
-Ano ang gagawin sa heat exhaustion?
-Pinakamabisang paraan para makarekober mula sa heat exhaustion?
-Payo sa paggamot ng heat exhaustion?
-Paano pamahalaan ang heat exhaustion?
-Ano ang makakatulong sa heat exhaustion?
-Paano mabilis na makarekober mula sa heat exhaustion?
-Mga remedyo para sa heat exhaustion?
-Paano palamigin ang katawan mula sa heat exhaustion?
-Mga tip para pamahalaan ang heat exhaustion?</t>
+    <t>Pagkapagod sa init
+Paano gamutin ang pagkapagod sa init?
+Ano ang gagawin sa pagkapagod sa init?
+Pinakamabisang paraan para makarekober mula sa pagkapagod sa init?
+Payo sa paggamot ng pagkapagod sa init?
+Paano pamahalaan ang pagkapagod sa init?
+Ano ang makakatulong sa pagkapagod sa init?
+Paano mabilis na makarekober mula sa pagkapagod sa init?
+Mga remedyo para sa pagkapagod sa init?
+Paano palamigin ang katawan mula sa pagkapagod sa init?
+Mga tip para pamahalaan ang pagkapagod sa init?</t>
   </si>
   <si>
     <t>Lumipat sa isang malamig at may anino na lugar at uminom ng maraming tubig. Alisin o luwagan ang damit at maglagay ng malamig, basang tela sa balat. Magpahinga hanggang sa ganap na mag-recover. Kung lumalala ang mga sintomas, humingi ng medikal na tulong.
@@ -584,13 +596,14 @@
     </r>
   </si>
   <si>
-    <t>Heat Stroke</t>
+    <t>Heat stroke</t>
   </si>
   <si>
     <t>Heat stroke is a severe heat-related illness that occurs when the body overheats and cannot cool down. Symptoms include high body temperature, altered mental state, nausea, and rapid breathing. Immediate medical attention is crucial to prevent serious complications or death.</t>
   </si>
   <si>
-    <t xml:space="preserve">What to do for heat stroke?
+    <t>Heat stroke
+What to do for heat stroke?
 How to treat heat stroke?
 Heat stroke treatment advice?
 How to prevent heat stroke?
@@ -601,8 +614,7 @@
 How can I recover from heat stroke quickly?
 Remedies for heat stroke?
 How to cool down from heat stroke?
-Tips for managing heat stroke?
-</t>
+Tips for managing heat stroke?</t>
   </si>
   <si>
     <t>Move to a cooler place and lie down with your legs slightly elevated. Apply cool water to your skin and use a fan to help with cooling. Drink cool water or an electrolyte drink, but avoid sugary or alcoholic beverages. Seek emergency medical attention immediately.
@@ -632,7 +644,8 @@
     <t>Ang heat stroke ay isang malubhang sakit na dulot ng sobrang init na nangyayari kapag ang katawan ay sobrang init at hindi na kayang magpalamig. Ang mga sintomas ay kinabibilangan ng mataas na temperatura ng katawan, pagbabago sa mental na estado, pagduduwal, at mabilis na paghinga. Ang agarang medikal na atensyon ay mahalaga upang maiwasan ang malubhang komplikasyon o kamatayan.</t>
   </si>
   <si>
-    <t>Paano gamutin ang heat stroke?
+    <t>Heat stroke
+Paano gamutin ang heat stroke?
 Ano ang gagawin sa heat stroke?
 Payo sa paggamot ng heat stroke?
 Paano maiwasan ang heat stroke?
@@ -663,13 +676,14 @@
     </r>
   </si>
   <si>
-    <t>Nose Bleed</t>
+    <t>Nose bleed</t>
   </si>
   <si>
     <t>A nosebleed occurs when the blood vessels in the nose break, causing blood to flow from one or both nostrils. It can be caused by dry air, injury, allergies, or other factors. Symptoms include bleeding from the nose, which can range from light to heavy. Proper first aid can help stop the bleeding and prevent complications.</t>
   </si>
   <si>
-    <t>How to stop a nosebleed?
+    <t>Nose bleed
+How to stop a nosebleed?
 What to do for a nosebleed?
 Best way to stop nose bleeding?
 Nosebleed treatment advice?
@@ -695,13 +709,14 @@
 https://www.webmd.com/first-aid/nosebleeds-treatment</t>
   </si>
   <si>
-    <t>Dumudugo sa Ilong</t>
+    <t>Pagdurugo ng ilong</t>
   </si>
   <si>
     <t>Ang pagdurugo ng ilong ay nangyayari kapag ang mga daluyan ng dugo sa ilong ay nabasag, na nagiging sanhi ng pagdaloy ng dugo mula sa isa o parehong butas ng ilong. Maaari itong sanhi ng tuyong hangin, pinsala, alerhiya, o iba pang mga salik. Ang mga sintomas ay kinabibilangan ng pagdurugo mula sa ilong, na maaaring magaan o mabigat. Ang tamang first aid ay makakatulong upang itigil ang pagdurugo at maiwasan ang mga komplikasyon.</t>
   </si>
   <si>
-    <t>Paano itigil ang pagdurugo ng ilong?
+    <t>Pagdurugo ng ilong
+Paano itigil ang pagdurugo ng ilong?
 Ano ang gagawin sa pagdurugo ng ilong?
 Pinakamabisang paraan para itigil ang pagdurugo ng ilong?
 Payo sa paggamot ng pagdurugo ng ilong?
@@ -741,13 +756,14 @@
     </r>
   </si>
   <si>
-    <t>Rectal Bleeding</t>
+    <t>Rectal bleeding</t>
   </si>
   <si>
     <t>Rectal bleeding refers to any blood that passes from your anus. It can be caused by various conditions such as hemorrhoids, anal fissures, or more serious issues like colorectal cancer. Symptoms may include bright red blood on toilet paper, in the toilet bowl, or mixed with stool. It's important to seek medical evaluation to determine the cause and appropriate treatment.</t>
   </si>
   <si>
-    <t>What to do if I have rectal bleeding?
+    <t>Rectal bleeding
+What to do if I have rectal bleeding?
 How to treat rectal bleeding?
 Rectal bleeding treatment advice?
 What to do for rectal bleeding?
@@ -768,13 +784,14 @@
 </t>
   </si>
   <si>
-    <t>Pagdurugo ng Tumbong</t>
+    <t>Pagdurugo ng tumbong</t>
   </si>
   <si>
     <t xml:space="preserve"> Ang pagdurugo sa puwit ay tumutukoy sa anumang dugo na lumalabas mula sa iyong puwit. Maaari itong sanhi ng iba't ibang kondisyon tulad ng almoranas, anal fissures, o mas seryosong mga isyu tulad ng colorectal cancer. Ang mga sintomas ay maaaring kabilang ang maliwanag na pulang dugo sa toilet paper, sa toilet bowl, o halo sa dumi. Mahalaga ang paghingi ng medikal na pagsusuri upang matukoy ang sanhi at angkop na paggamot.</t>
   </si>
   <si>
-    <t>Ano ang gagawin kung may pagdurugo sa puwit?
+    <t>Pagdurugo ng tumbong
+Ano ang gagawin kung may pagdurugo sa puwit?
 Paano gamutin ang pagdurugo sa puwit?
 Payo sa paggamot ng pagdurugo sa puwit?
 Ano ang gagawin sa pagdurugo sa puwit?
@@ -795,14 +812,15 @@
 </t>
   </si>
   <si>
-    <t>Testicle Pain</t>
+    <t>Testicle pain</t>
   </si>
   <si>
     <t xml:space="preserve">Testicle pain refers to discomfort or pain in one or both testicles. It can be caused by various factors such as injury, infection, or medical conditions like testicular torsion. Symptoms may include swelling, redness, and tenderness. Persistent or severe testicle pain should be evaluated by a healthcare provider.
                                 </t>
   </si>
   <si>
-    <t>What to do if I have testicle pain?
+    <t>Testicle pain
+What to do if I have testicle pain?
 How to treat testicle pain?
 Best way to relieve testicle pain?
 Testicle pain treatment advice?
@@ -823,13 +841,14 @@
 </t>
   </si>
   <si>
-    <t>Pananakit ng Testicle</t>
+    <t>Pananakit ng testicle</t>
   </si>
   <si>
     <t>Ang sakit sa bayag ay tumutukoy sa kakulangan sa ginhawa o sakit sa isa o parehong bayag. Maaari itong sanhi ng iba't ibang salik tulad ng pinsala, impeksyon, o mga kondisyong medikal tulad ng testicular torsion. Ang mga sintomas ay maaaring kabilang ang pamamaga, pamumula, at pagiging malambot. Ang tuloy-tuloy o matinding sakit sa bayag ay dapat suriin ng isang tagapagbigay ng pangangalagang pangkalusugan.</t>
   </si>
   <si>
-    <t>Ano ang gagawin kung may sakit sa bayag?
+    <t>Pananakit ng testicle
+Ano ang gagawin kung may sakit sa bayag?
 Paano gamutin ang sakit sa bayag?
 Pinakamabisang paraan para maibsan ang sakit sa bayag?
 Payo sa paggamot ng sakit sa bayag?
@@ -852,7 +871,8 @@
 				</t>
   </si>
   <si>
-    <t>What to do if I have vertigo?
+    <t>Vertigo
+What to do if I have vertigo?
 How to treat vertigo?
 Best way to manage vertigo?
 Vertigo treatment advice?
@@ -881,7 +901,8 @@
     <t>Ang vertigo ay isang pakiramdam ng kawalan ng balanse, madalas na inilarawan bilang pakiramdam na ikaw o ang iyong paligid ay umiikot. Maaari itong sanhi ng mga problema sa loob ng tainga, impeksyon, o iba pang mga kondisyong medikal. Ang mga sintomas ay kinabibilangan ng pagkahilo, pagduduwal, at kahirapan sa pagpapanatili ng balanse. Ang pamamahala ng vertigo ay kinabibilangan ng pagtugon sa pinagbabatayang sanhi at paggamit ng mga teknik upang mabawasan ang mga sintomas.</t>
   </si>
   <si>
-    <t>Ano ang gagawin kung may vertigo?
+    <t>Vertigo
+Ano ang gagawin kung may vertigo?
 Paano gamutin ang vertigo?
 Pinakamabisang paraan para pamahalaan ang vertigo?
 Payo sa paggamot ng vertigo?
@@ -903,14 +924,15 @@
 Tsaang Gubat</t>
   </si>
   <si>
-    <t>Eye Injury</t>
+    <t>Eye injury</t>
   </si>
   <si>
     <t xml:space="preserve">An eye injury can occur due to various reasons such as trauma, foreign objects, or chemical exposure. Symptoms may include pain, redness, swelling, and vision changes. Immediate and appropriate first aid can help prevent further damage and complications.",
 				</t>
   </si>
   <si>
-    <t>What to do if I have an eye injury?
+    <t>Eye injury
+What to do if I have an eye injury?
 How to treat an eye injury?
 Eye injury first aid advice?
 Best way to manage an eye injury?
@@ -940,13 +962,14 @@
     </r>
   </si>
   <si>
-    <t>Pinsala sa Mata</t>
+    <t>Pinsala sa mata</t>
   </si>
   <si>
     <t>Ang pinsala sa mata ay maaaring mangyari dahil sa iba't ibang dahilan tulad ng trauma, banyagang bagay, o pagkakalantad sa kemikal. Ang mga sintomas ay maaaring kabilang ang sakit, pamumula, pamamaga, at pagbabago sa paningin. Ang agarang at angkop na first aid ay makakatulong upang maiwasan ang karagdagang pinsala at komplikasyon.</t>
   </si>
   <si>
-    <t>Ano ang gagawin kung may pinsala sa mata?
+    <t>Pinsala sa mata
+Ano ang gagawin kung may pinsala sa mata?
 Paano gamutin ang pinsala sa mata?
 Payo sa first aid para sa pinsala sa mata?
 Pinakamabisang paraan para pamahalaan ang pinsala sa mata?
@@ -966,14 +989,15 @@
 https://www.webmd.com/first-aid/eye-injuries-treatment</t>
   </si>
   <si>
-    <t>Food Poisoning</t>
+    <t>Food poisoning</t>
   </si>
   <si>
     <t xml:space="preserve">Food poisoning is an illness caused by consuming contaminated food or drink. Symptoms include nausea, vomiting, diarrhea, and abdominal pain. It is important to stay hydrated and rest while recovering.
 			</t>
   </si>
   <si>
-    <t>How to treat food poisoning?
+    <t>Food poisoning
+How to treat food poisoning?
 What to do for food poisoning?
 Best way to recover from food poisoning?
 Food poisoning treatment advice?
@@ -1009,22 +1033,23 @@
     </r>
   </si>
   <si>
-    <t>Pagkalason sa Pagkain</t>
+    <t>Pagkalason sa pagkain</t>
   </si>
   <si>
     <t>Ang food poisoning ay isang sakit na dulot ng pagkain o pag-inom ng kontaminadong pagkain o inumin. Ang mga sintomas ay kinabibilangan ng pagduduwal, pagsusuka, pagtatae, at pananakit ng tiyan. Mahalaga ang pananatiling hydrated at magpahinga habang nagpapagaling.</t>
   </si>
   <si>
-    <t>Paano gamutin ang food poisoning?
-Ano ang gagawin sa food poisoning?
-Pinakamabisang paraan para makarekober mula sa food poisoning?
-Payo sa paggamot ng food poisoning?
-Paano pamahalaan ang food poisoning?
-Ano ang makakatulong sa food poisoning?
-Paano mabilis na matigil ang food poisoning?
-Mga remedyo para sa food poisoning?
-Paano pakalmahin ang food poisoning?
-Mga tip para pamahalaan ang food poisoning?</t>
+    <t>Pagkalason sa pagkain
+Paano gamutin ang pagkalason sa pagkain?
+Ano ang gagawin sa pagkalason sa pagkain?
+Pinakamabisang paraan para makarekober mula sa pagkalason sa pagkain?
+Payo sa paggamot ng pagkalason sa pagkain?
+Paano pamahalaan ang pagkalason sa pagkain?
+Ano ang makakatulong sa pagkalason sa pagkain?
+Paano mabilis na matigil ang pagkalason sa pagkain?
+Mga remedyo para sa pagkalason sa pagkain?
+Paano pakalmahin ang pagkalason sa pagkain?
+Mga tip para pamahalaan ang pagkalason sa pagkain?</t>
   </si>
   <si>
     <t>Manatiling hydrated sa pamamagitan ng pag-inom ng malinaw na likido tulad ng tubig o oral rehydration solutions. Magpahinga at iwasan ang solidong pagkain hanggang sa humupa ang mga sintomas. Kung ang mga sintomas ay malubha o nagpapatuloy, humingi ng medikal na tulong.
@@ -1058,7 +1083,8 @@
 				</t>
   </si>
   <si>
-    <t>What to do during convulsions?
+    <t>Convulsion
+What to do during convulsions?
 How to help someone having a seizure?
 Convulsion first aid steps?
 Best way to manage convulsions?
@@ -1084,16 +1110,17 @@
     <t>Ang convulsions, na kilala rin bilang seizures, ay biglaang, hindi makontrol na mga kaguluhan sa kuryente sa utak. Maaari itong magdulot ng mga pagbabago sa pag-uugali, galaw, pakiramdam, at antas ng kamalayan. Ang agarang first aid ay mahalaga upang protektahan ang tao mula sa pinsala at matiyak na makakatanggap sila ng angkop na medikal na pangangalaga.</t>
   </si>
   <si>
-    <t>Ano ang gagawin sa panahon ng convulsions?
+    <t>Kombulsyon
+Ano ang gagawin sa panahon ng kombulsyon?
 Paano tulungan ang taong may seizure?
-Mga hakbang sa first aid para sa convulsions?
-Pinakamabisang paraan para pamahalaan ang convulsions?
-Ano ang dapat gawin para sa convulsions?
-Ano ang makakatulong sa convulsions?
-Paano mabilis na matigil ang convulsions?
-Mga remedyo para sa convulsions?
-Paano pakalmahin ang convulsions?
-Mga tip para pamahalaan ang convulsions?</t>
+Mga hakbang sa first aid para sa kombulsyon?
+Pinakamabisang paraan para pamahalaan ang kombulsyon?
+Ano ang dapat gawin para sa kombulsyon?
+Ano ang makakatulong sa kombulsyon?
+Paano mabilis na matigil ang kombulsyon?
+Mga remedyo para sa kombulsyon?
+Paano pakalmahin ang kombulsyon?
+Mga tip para pamahalaan ang kombulsyon?</t>
   </si>
   <si>
     <t>Protektahan ang tao mula sa pinsala sa pamamagitan ng pagtanggal ng mga nakapaligid na bagay. Huwag silang pigilan o maglagay ng anumang bagay sa kanilang bibig. Pagkatapos huminto ang mga convulsions, ilagay sila sa recovery position at bantayan ang kanilang paghinga. Humingi ng agarang medikal na tulong.
@@ -1114,14 +1141,15 @@
     </r>
   </si>
   <si>
-    <t>Head Injury</t>
+    <t>Head injury</t>
   </si>
   <si>
     <t xml:space="preserve">A head injury can result from various causes such as falls, accidents, or sports injuries. Symptoms may include headache, dizziness, confusion, and nausea. Immediate and appropriate first aid can help prevent further complications.
 			</t>
   </si>
   <si>
-    <t>What to do for a head injury?
+    <t>Head injury
+What to do for a head injury?
 How to treat a head injury?
 Head injury first aid advice?
 Best way to manage a head injury?
@@ -1147,13 +1175,14 @@
 https://www.mountsinai.org/health-library/injury/head-injury-first-aid</t>
   </si>
   <si>
-    <t>Pinsala sa Ulo</t>
+    <t>Pinsala sa ulo</t>
   </si>
   <si>
     <t>Ang pinsala sa ulo ay maaaring sanhi ng iba't ibang dahilan tulad ng pagkahulog, aksidente, o pinsala sa sports. Ang mga sintomas ay maaaring kabilang ang sakit ng ulo, pagkahilo, pagkalito, at pagduduwal. Ang agarang at angkop na first aid ay makakatulong upang maiwasan ang karagdagang komplikasyon.</t>
   </si>
   <si>
-    <t>Ano ang gagawin kung may pinsala sa ulo?
+    <t>Pinsala sa ulo
+Ano ang gagawin kung may pinsala sa ulo?
 Paano gamutin ang pinsala sa ulo?
 Payo sa first aid para sa pinsala sa ulo?
 Pinakamabisang paraan para pamahalaan ang pinsala sa ulo?
@@ -1181,7 +1210,8 @@
     <t xml:space="preserve">Fainting, also known as syncope, can occur due to various reasons such as dehydration, low blood pressure, or sudden changes in posture. Symptoms may include dizziness, lightheadedness, and temporary loss of consciousness. Immediate first aid can help prevent further complications. </t>
   </si>
   <si>
-    <t>What to do if someone faints?
+    <t>Fainting
+What to do if someone faints?
 How to help someone who fainted?
 Fainting first aid steps?
 Best way to manage fainting?
@@ -1206,7 +1236,8 @@
     <t>Ang paghimatay, na kilala rin bilang syncope, ay maaaring mangyari dahil sa iba't ibang dahilan tulad ng dehydration, mababang presyon ng dugo, o biglaang pagbabago ng postura. Ang mga sintomas ay maaaring kabilang ang pagkahilo, pagkakaroon ng magaan na ulo, at pansamantalang pagkawala ng malay. Ang agarang first aid ay makakatulong upang maiwasan ang karagdagang komplikasyon.</t>
   </si>
   <si>
-    <t>Ano ang gagawin kung may hinimatay?
+    <t>Nanghihina
+Ano ang gagawin kung may hinimatay?
 Paano tulungan ang hinimatay?
 Mga hakbang sa first aid para sa hinimatay?
 Pinakamabisang paraan para pamahalaan ang hinimatay?
@@ -1251,7 +1282,8 @@
 			</t>
   </si>
   <si>
-    <t xml:space="preserve">How to treat a headache?
+    <t>Headache
+How to treat a headache?
 What to do for a headache?
 Best way to relieve a headache?
 Headache treatment advice?
@@ -1260,8 +1292,7 @@
 What helps with a headache?
 How to soothe a headache?
 First aid for headache?
-How to care for a headache?
-</t>
+How to care for a headache?</t>
   </si>
   <si>
     <t xml:space="preserve">Rest in a quiet, dark room and apply a cold or warm compress to your forehead. Over-the-counter pain relievers like ibuprofen or acetaminophen can help. Stay hydrated and avoid triggers like bright lights or loud noises.",
@@ -1278,13 +1309,14 @@
 https://www.mountsinai.org/health-library/symptom/headache</t>
   </si>
   <si>
-    <t>Sakit ng Ulo</t>
+    <t>Sakit ng ulo</t>
   </si>
   <si>
     <t>Ang sakit ng ulo ay maaaring sanhi ng iba't ibang salik tulad ng stress, dehydration, o tensyon. Ang mga sintomas ay maaaring kabilang ang mapurol o matalim na sakit sa ulo, pagiging sensitibo sa liwanag o tunog, at pagduduwal. Ang tamang pamamahala at paggamot ay makakatulong upang maibsan ang kakulangan sa ginhawa.</t>
   </si>
   <si>
-    <t>Ano ang gagawin para sa sakit ng ulo?
+    <t>Sakit ng ulo
+Ano ang gagawin para sa sakit ng ulo?
 Paano gamutin ang sakit ng ulo?
 Pinakamabisang paraan para maibsan ang sakit ng ulo?
 Payo sa paggamot ng sakit ng ulo?
@@ -1325,7 +1357,8 @@
     <t xml:space="preserve">The common cold is a viral infection that affects the upper respiratory tract. Symptoms may include a runny or stuffy nose, sore throat, cough, congestion, and mild body aches. Proper care and treatment can help alleviate symptoms and speed up recovery.                                </t>
   </si>
   <si>
-    <t xml:space="preserve">How to treat a cold?
+    <t>Cold
+How to treat a cold?
 What to do for a cold?
 Best way to get over a cold?
 Cold treatment advice?
@@ -1334,8 +1367,7 @@
 What helps with a cold?
 How to soothe a cold?
 First aid for cold?
-How to care for a cold?
-</t>
+How to care for a cold?</t>
   </si>
   <si>
     <t xml:space="preserve">Rest and stay hydrated by drinking plenty of fluids. Use over-the-counter medications to relieve symptoms like congestion and sore throat. Inhale steam or use a humidifier to ease breathing. If symptoms persist or worsen, consult a healthcare provider.
@@ -1360,7 +1392,8 @@
     <t>Ang sipon ay isang viral infection na nakakaapekto sa upper respiratory tract. Ang mga sintomas ay maaaring kabilang ang sipon o baradong ilong, sore throat, ubo, congestion, at bahagyang pananakit ng katawan. Ang tamang pangangalaga at paggamot ay makakatulong upang maibsan ang mga sintomas at mapabilis ang paggaling.</t>
   </si>
   <si>
-    <t xml:space="preserve">Ano ang gagawin para sa sipon?
+    <t>Sipon
+Ano ang gagawin para sa sipon?
 Paano gamutin ang sipon?
 Pinakamabisang paraan para gumaling sa sipon?
 Payo sa paggamot ng sipon?
@@ -1368,8 +1401,7 @@
 Ano ang makakatulong sa sipon?
 Paano maalis ang sipon?
 First aid para sa sipon?
-Paano alagaan ang sipon?
-</t>
+Paano alagaan ang sipon?</t>
   </si>
   <si>
     <t>Magpahinga at manatiling hydrated sa pamamagitan ng pag-inom ng maraming likido. Gumamit ng mga over-the-counter na gamot para maibsan ang mga sintomas tulad ng congestion at sore throat. Huminga ng steam o gumamit ng humidifier upang mapadali ang paghinga. Kung ang mga sintomas ay nagpapatuloy o lumalala, kumonsulta sa healthcare provider.
@@ -1404,7 +1436,8 @@
 			</t>
   </si>
   <si>
-    <t xml:space="preserve">What to do if someone is drowning?
+    <t>Drowning
+What to do if someone is drowning?
 How to save someone who is drowning?
 Drowning rescue steps?
 Best way to help a drowning person?
@@ -1413,8 +1446,7 @@
 What helps with drowning?
 How to perform a drowning rescue?
 First aid for drowning?
-How to care for a drowning person?
-</t>
+How to care for a drowning person?</t>
   </si>
   <si>
     <t xml:space="preserve">Call for emergency help immediately. If it's safe, try to reach the person with a pole or throw a flotation device. Do not enter the water unless you're trained in water rescue. Once the person is out of the water, check for breathing and start CPR if necessary.
@@ -1443,7 +1475,8 @@
     <t>Ang pagkalunod ay nangyayari kapag ang isang tao ay nalulubog sa tubig at hindi makakahinga. Ang mga sintomas ay maaaring kabilang ang kahirapan sa paghinga, pag-ubo, at pagkawala ng malay. Ang agarang at angkop na pagligtas at first aid ay makakapagligtas ng buhay at makakaiwas sa karagdagang komplikasyon.</t>
   </si>
   <si>
-    <t>Ano ang gagawin kung may nalulunod?
+    <t>Nalulunod
+Ano ang gagawin kung may nalulunod?
 Paano iligtas ang nalulunod?
 Mga hakbang sa pagligtas ng nalulunod?
 Pinakamabisang paraan para tulungan ang nalulunod?
@@ -1463,14 +1496,15 @@
 https://www.mountsinai.org/health-library/condition/drowning</t>
   </si>
   <si>
-    <t>Chest Pain</t>
+    <t>Chest pain</t>
   </si>
   <si>
     <t xml:space="preserve">Chest pain can be caused by various factors such as heart problems, lung issues, or digestive disorders. Symptoms may include a sharp, dull, or burning sensation in the chest, shortness of breath, and dizziness. Immediate and appropriate action can help prevent serious complications.
 			</t>
   </si>
   <si>
-    <t xml:space="preserve">What to do for chest pain?
+    <t>Chest pain
+What to do for chest pain?
 How to treat chest pain?
 Chest pain treatment advice?
 What should I do if I have chest pain?
@@ -1479,8 +1513,7 @@
 What helps with chest pain?
 How to soothe chest pain?
 First aid for chest pain?
-How to care for chest pain?
-</t>
+How to care for chest pain?</t>
   </si>
   <si>
     <t xml:space="preserve">If you experience chest pain, stop any physical activity and rest. Take deep breaths and try to stay calm. If the pain persists, seek emergency medical help immediately, as it could be a sign of a heart attack.
@@ -1499,10 +1532,14 @@
     <t>Pananakit ng dibdib</t>
   </si>
   <si>
+    <t>Injury</t>
+  </si>
+  <si>
     <t>Ang pananakit ng dibdib ay maaaring sanhi ng iba't ibang salik tulad ng problema sa puso, isyu sa baga, o mga sakit sa pagtunaw. Ang mga sintomas ay maaaring kabilang ang matalim, mapurol, o nasusunog na pakiramdam sa dibdib, hirap sa paghinga, at pagkahilo. Ang agarang at angkop na aksyon ay makakatulong upang maiwasan ang seryosong komplikasyon.</t>
   </si>
   <si>
-    <t>Ano ang gagawin para sa pananakit ng dibdib?
+    <t>Pananakit ng dibdib
+Ano ang gagawin para sa pananakit ng dibdib?
 Paano gamutin ang pananakit ng dibdib?
 Payo sa paggamot ng pananakit ng dibdib?
 Ano ang dapat gawin kung may pananakit ng dibdib?
@@ -1539,7 +1576,8 @@
 			</t>
   </si>
   <si>
-    <t>How to treat dehydration?
+    <t>Dehydration
+How to treat dehydration?
 What to do for dehydration?
 Best way to rehydrate?
 Dehydration treatment advice?
@@ -1560,20 +1598,23 @@
 https://www.verywellhealth.com/dehydration-treatment-8704072</t>
   </si>
   <si>
-    <t>Ang dehydration ay nangyayari kapag ang katawan ay nawawalan ng mas maraming likido kaysa sa tinatanggap, na nagdudulot ng kawalan ng balanse. Ang mga sintomas ay maaaring kabilang ang tuyong bibig, uhaw, madilim na ihi, pagkahilo, at pagkapagod. Ang tamang hydration at agarang paggamot ay makakatulong upang maibalik ang balanse ng likido at maiwasan ang komplikasyon.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ano ang gagawin para sa dehydration?
-Paano gamutin ang dehydration?
-Pinakamabisang paraan para ma-rehydrate?
-Payo sa paggamot ng dehydration?
-Paano pamahalaan ang dehydration?
-Ano ang makakatulong sa dehydration?
-Paano maalis ang dehydration?
-First aid para sa dehydration?
-Paano alagaan ang dehydration?
-Tips for managing dehydration?
-</t>
+    <t>Pagkauhaw</t>
+  </si>
+  <si>
+    <t>Ang pagkauhaw ay nangyayari kapag ang katawan ay nawawalan ng mas maraming likido kaysa sa tinatanggap, na nagdudulot ng kawalan ng balanse. Ang mga sintomas ay maaaring kabilang ang tuyong bibig, uhaw, madilim na ihi, pagkahilo, at pagkapagod. Ang tamang hydration at agarang paggamot ay makakatulong upang maibalik ang balanse ng likido at maiwasan ang komplikasyon.</t>
+  </si>
+  <si>
+    <t>Pagkauhaw
+Ano ang gagawin para sa pagkauhaw?
+Paano gamutin ang pagkauhaw?
+Pinakamabisang paraan para ma-uhaw?
+Payo sa paggamot ng pagkauhaw?
+Paano pamahalaan ang pagkauhaw?
+Ano ang makakatulong sa pagkauhaw?
+Paano maalis ang pagkauhaw?
+First aid para sa pagkauhaw?
+Paano alagaan ang pagkauhaw?
+Tips for managing pagkauhaw?</t>
   </si>
   <si>
     <t>Uminom ng maraming tubig o oral rehydration solution (ORS). Magpahinga sa isang malamig na kapaligiran at iwasan ang pisikal na aktibidad hanggang sa ganap na ma-rehydrate. Para sa malubhang dehydration, humingi ng medikal na tulong.
@@ -1600,7 +1641,8 @@
     <t>Cuts are injuries caused by a sharp object that breaks the skin. They can range from minor to severe, depending on the depth and location of the cut. Common causes of cuts include: Accidents: Slips, falls, or other accidents can lead to cuts. Sharp objects: Knives, scissors, broken glass, and other sharp objects can cause cuts.</t>
   </si>
   <si>
-    <t>What to do if I have a cut?
+    <t>Cut
+What to do if I have a cut?
 How to treat a cut?
 Best way to heal cuts?
 What medicine to use for a cut?
@@ -1640,7 +1682,8 @@
     <t>Hiwa ay mga pinsala na dulot ng isang matalim na bagay na pumuputol sa balat. Maaari silang mag-iba mula sa menor de edad hanggang malubha, depende sa lalim at lokasyon ng hiwa. Ang mga karaniwang sanhi ng hiwa ay kinabibilangan ng: Aksidente: Ang mga pagdulas, pagkahulog, o iba pang aksidente ay maaaring humantong sa mga hiwa. Matatalim na bagay: Ang mga kutsilyo, gunting, sirang baso, at iba pang matatalim na bagay ay maaaring magdulot ng mga hiwa.</t>
   </si>
   <si>
-    <t>Paano gamutin ang hiwa?
+    <t>Hiwa
+Paano gamutin ang hiwa?
 Ano ang dapat gawin kapag may hiwa?
 Anong gamot ang ilalagay sa hiwa?
 Paano pigilan ang pagdurugo mula sa hiwa?
@@ -1677,7 +1720,8 @@
     <t>Burns are injuries caused by tissue damage from heat, chemicals, electricity, radiation, or the sun. They can range from mild to severe, depending on the extent and depth of the damage.</t>
   </si>
   <si>
-    <t>What should I do for a burn?
+    <t>Burn
+What should I do for a burn?
 How to treat burns?
 Which ointment to apply on burns?
 Burn treatment steps?
@@ -1718,7 +1762,8 @@
     <t>Burns ay mga pinsala na dulot ng pagkasira ng tissue mula sa init, kemikal, kuryente, radiation, o araw. Maaari silang mag-iba mula sa mild hanggang severe, depende sa lawak at lalim ng pinsala.</t>
   </si>
   <si>
-    <t>Paano gamutin ang paso?
+    <t>Paso
+Paano gamutin ang paso?
 Ano ang dapat gawin kapag napaso?
 Anong ointment ang dapat ilagay sa paso?
 Mga hakbang sa paggamot ng paso?
@@ -1756,7 +1801,8 @@
     <t>Abrasions are superficial skin injuries caused by the scraping away of the top layer of skin. They often result from friction or rubbing against a rough surface. Common causes of abrasions include: Falls: Falling onto a hard surface can cause abrasions. Sports injuries: Contact sports or accidents during physical activity can lead to abrasions. Accidents: Slips, trips, or other accidents can result in abrasions. Friction: Rubbing against a rough surface, such as sandpaper or concrete, can cause abrasions.</t>
   </si>
   <si>
-    <t>How to treat abrasions?
+    <t>Abrasion
+How to treat abrasions?
 What to do if I have an abrasion?
 Best way to heal abrasions?
 What should I apply on an abrasion?
@@ -1784,7 +1830,8 @@
     <t>Gasgas ay mga mababaw na pinsala sa balat na dulot ng pagkiskis ng pinakamataas na layer ng balat. Madalas itong resulta ng alitan o pagkuskos sa isang magaspang na ibabaw. Ang mga karaniwang sanhi ng gasgas ay kinabibilangan ng: Pagbagsak: Ang pagbagsak sa isang matigas na ibabaw ay maaaring magdulot ng gasgas. Mga pinsala sa sports: Ang mga contact sports o aksidente sa panahon ng pisikal na aktibidad ay maaaring humantong sa gasgas. Aksidente: Ang mga pagdulas, pagkatisod, o iba pang aksidente ay maaaring magresulta sa gasgas. Alitan: Ang pagkuskos sa isang magaspang na ibabaw, tulad ng papel de liha o semento, ay maaaring magdulot ng gasgas.</t>
   </si>
   <si>
-    <t xml:space="preserve">Paano gamutin ang gasgas?
+    <t>Gasgas
+Paano gamutin ang gasgas?
 Ano ang dapat gawin kapag may gasgas?
 Anong ointment ang dapat ilagay sa gasgas?
 Mga hakbang sa paggamot ng gasgas?
@@ -1793,8 +1840,7 @@
 Paano pigilan ang pagdurugo mula sa gasgas?
 Anong gamot ang dapat ilagay sa gasgas?
 Ano ang pinakamainam na gawin para gumaling ang gasgas?
-Paano gamutin ang sugat mula sa gasgas?
-</t>
+Paano gamutin ang sugat mula sa gasgas?</t>
   </si>
   <si>
     <t>Linisin ang gasgas gamit ang tubig at sabon upang alisin ang anumang dumi. Maglagay ng antiseptiko upang maiwasan ang impeksyon. Takpan ng sterile na benda o gasa at palitan ito araw-araw. Panatilihing tuyo ang lugar at bantayan para sa mga senyales ng impeksyon.
@@ -1812,7 +1858,8 @@
     <t>Stings are injuries caused by the injection of venom or irritants from insects or other animals. They can range from mild to severe, depending on the type of animal and the individual's sensitivity. Common causes of stings include: Bees: Honeybees, bumblebees, and wasps can sting when they feel threatened. Ants: Fire ants and other ant species can sting when disturbed. Hornets: Hornets can sting multiple times and their venom is more potent than that of bees. Jellyfish: Jellyfish can sting when their tentacles come into contact with the skin. Other animals: Some animals, such as scorpions and spiders, can also sting.</t>
   </si>
   <si>
-    <t>How to treat a sting?
+    <t>Sting
+How to treat a sting?
 What to do for insect stings?
 How to relieve sting pain?
 Sting treatment advice?
@@ -1847,10 +1894,14 @@
     </r>
   </si>
   <si>
+    <t>Sakit ng kagat</t>
+  </si>
+  <si>
     <t>Sakit ng kagat ay mga pinsala na dulot ng pag-iniksyon ng lason o mga irritant mula sa mga insekto o iba pang hayop. Maaari silang mag-iba mula sa mild hanggang severe, depende sa uri ng hayop at sa sensitivity ng indibidwal. Ang mga karaniwang sanhi ng sakit ng kagat ay kinabibilangan ng: Bubuyog: Ang mga bubuyog, bumblebees, at wasps ay maaaring mangagat kapag nakaramdam sila ng banta. Langgam: Ang mga fire ants at iba pang species ng langgam ay maaaring mangagat kapag nabalisa. Hornets: Ang mga hornets ay maaaring mangagat ng maraming beses at ang kanilang lason ay mas malakas kaysa sa mga bubuyog. Jellyfish: Ang mga jellyfish ay maaaring mangagat kapag ang kanilang mga galamay ay nakikipag-ugnay sa balat. Iba pang hayop: Ang ilang hayop, tulad ng mga alakdan at gagamba, ay maaari ring mangagat.</t>
   </si>
   <si>
-    <t>Paano gamutin ang kagat ng insekto?
+    <t>Sakit ng kagat
+Paano gamutin ang kagat ng insekto?
 Ano ang dapat gawin kapag nakagat ng insekto?
 Paano bawasan ang sakit mula sa kagat ng insekto?
 Ano ang dapat ilagay sa kagat ng insekto?
@@ -1887,7 +1938,8 @@
     <t>Splinters are small pieces of wood, glass, or other materials that become embedded in the skin. They can cause pain, inflammation, and even infection if not removed properly. Common causes of splinters include: Accidents: Slips, falls, or other accidents can lead to splinters. Working with wood or other materials: People who work with wood, construction, or gardening are at risk of getting splinters. Playing outdoors: Children playing outdoors may accidentally get splinters from tree branches, playground equipment, or other objects.</t>
   </si>
   <si>
-    <t>What should I do for a burn?
+    <t>Splinter
+What should I do for a burn?
 How to treat burns?
 Which ointment to apply on burns?
 Burn treatment steps?
@@ -1925,10 +1977,14 @@
     </r>
   </si>
   <si>
+    <t>Titid</t>
+  </si>
+  <si>
     <t>Titid ay maliliit na piraso ng kahoy, salamin, o iba pang materyales na natatangay sa balat. Maaari silang magdulot ng sakit, pamamaga, at maging impeksyon kung hindi maalis nang maayos. Ang mga karaniwang sanhi ng titid ay kinabibilangan ng: Aksidente: Ang mga pagdulas, pagkahulog, o iba pang aksidente ay maaaring humantong sa titid. Pagtatrabaho sa kahoy o iba pang materyales: Ang mga taong nagtatrabaho sa kahoy, konstruksyon, o paghahalaman ay nasa panganib na makakuha ng titid. Paglalaro sa labas: Ang mga batang naglalaro sa labas ay maaaring hindi sinasadyang makakuha ng titid mula sa mga sanga ng puno, kagamitan sa palaruan, o iba pang bagay.</t>
   </si>
   <si>
-    <t>Paano alisin ang tinik o piraso ng kahoy?
+    <t>Titid
+Paano alisin ang tinik o piraso ng kahoy?
 Ano ang dapat gawin kapag may tinik sa balat?
 Ano ang pinakamadaling paraan para alisin ang tinik?
 Paano linisin ang sugat mula sa tinik?
@@ -1954,7 +2010,8 @@
     <t>Sprains are injuries to ligaments, which are tough bands of tissue that connect bones to each other. They occur when a ligament is stretched or torn. Common causes of sprains include: Overstretching or twisting: Overstretching or twisting a joint beyond its normal range of motion can cause a sprain Falls: Falling awkwardly can lead to sprains, especially in the ankle or wrist. Sports injuries: Many sports, such as basketball, football, and soccer, involve sudden movements that can cause sprains. Accidents: Car accidents or other accidents can cause sprains.</t>
   </si>
   <si>
-    <t>What to do for a sprain?
+    <t>Sprain
+SWhat to do for a sprain?
 How to treat a sprained ankle?
 Sprain treatment advice?
 Best way to heal sprains?
@@ -1990,19 +2047,23 @@
     </r>
   </si>
   <si>
+    <t>Pilay</t>
+  </si>
+  <si>
     <t>Pilay ay mga pinsala sa ligament, na mga matigas na banda ng tissue na nagkokonekta sa mga buto sa isa't isa. Nangyayari ang mga ito kapag ang isang ligament ay naunat o napunit. Ang mga karaniwang sanhi ng pilay ay kinabibilangan ng: Pag-unat o pag-ikot nang sobra: Ang pag-unat o pag-ikot ng isang kasu-kasuan lampas sa normal nitong saklaw ng paggalaw ay maaaring magdulot ng pilay Pagbagsak: Ang pagbagsak nang hindi maayos ay maaaring humantong sa mga pilay, lalo na sa bukung-bukong o pulso. Mga pinsala sa sports: Maraming sports, tulad ng basketball, football, at soccer, ay nagsasangkot ng biglang mga galaw na maaaring magdulot ng pilay. Aksidente: Ang mga aksidente sa sasakyan o iba pang aksidente ay maaaring magdulot ng pilay.</t>
   </si>
   <si>
-    <t>Paano gamutin ang sprain?
+    <t>Pilay
+Paano gamutin ang pinsala sa pilay?
 Ano ang dapat gawin kapag napinsala ang bukung-bukong?
-Mga hakbang sa paggamot ng sprain?
-Paano bawasan ang pamamaga mula sa sprain?
-Paano mabilis na gumaling ang sprain?
-Paano maalis ang sakit mula sa sprain?
-Anong gamot ang maaaring inumin para sa sprain?
-Paano iwasan ang karagdagang pinsala sa sprain?
-Anong mga ehersisyo ang dapat gawin sa sprain?
-Ano ang mga palatandaan ng malalang sprain?</t>
+Mga hakbang sa paggamot ng pilay?
+Paano bawasan ang pamamaga mula sa pilay?
+Paano mabilis na gumaling ang pilay?
+Paano maalis ang sakit mula sa pilay?
+Anong gamot ang maaaring inumin para sa pilay?
+Paano iwasan ang karagdagang pinsala sa pilay?
+Anong mga ehersisyo ang dapat gawin sa pilay?
+Ano ang mga palatandaan ng malalang pilay?</t>
   </si>
   <si>
     <t>Pahingahin ang nasugatang bahagi at iwasan ang paglalagay ng bigat dito. Maglagay ng yelo upang mabawasan ang pamamaga at sakit. I-compress ang lugar gamit ang elastic na benda, at itaas ito sa taas ng puso. Isaalang-alang ang paggamit ng mga over-the-counter na gamot para sa sakit.
@@ -2029,13 +2090,14 @@
     </r>
   </si>
   <si>
-    <t>Pulled Muscle</t>
+    <t>Pulled muscle</t>
   </si>
   <si>
     <t>Pulled muscles, also known as muscle strains, are injuries that occur when a muscle is overstretched or torn. They can range from mild to severe, depending on the extent of the damage. Common causes of pulled muscles include: Overexertion: Exercising too hard or for too long can lead to pulled muscles. Sudden movements: Sudden, forceful movements, such as lifting heavy objects or twisting awkwardly, can strain muscles. Poor posture: Poor posture can put undue stress on muscles, making them more susceptible to strains. Muscle weakness: Weak muscles are more likely to be strained.</t>
   </si>
   <si>
-    <t>How to treat a pulled muscle?
+    <t>Pulled muscle
+How to treat a pulled muscle?
 What to do for a muscle pull?
 Best way to heal a pulled muscle?
 Pulled muscle treatment advice?
@@ -2054,19 +2116,21 @@
     <t>https://www.mayoclinic.org/diseases-conditions/muscle-strains/symptoms-causes/syc-20450507</t>
   </si>
   <si>
+    <t>Napunit na kalamnan</t>
+  </si>
+  <si>
     <t>Ang pilay ng kalamnan ay nangyayari kapag ang isang kalamnan ay naunat nang sobra o napunit. Maaaring mag-iba ito mula sa mild hanggang severe, depende sa pinsala. Karaniwang sanhi ay pag-abuso, biglang galaw, masamang postura, at kahinaan ng kalamnan.</t>
   </si>
   <si>
-    <t>Paano gamutin ang napinsalang kalamnan?
-Ano ang dapat gawin kapag may muscle pull?
-Mga hakbang sa paggamot ng napinsalang kalamnan?
-Paano mabilis na gumaling ang napinsalang kalamnan?
-Paano maalis ang sakit mula sa muscle pull?
-Anong gamot ang maaaring inumin para sa muscle pull?
-Paano maiwasan ang karagdagang pinsala sa napinsalang kalamnan?
-Anong mga ehersisyo ang dapat gawin para sa napinsalang kalamnan?
-Paano maiwasan ang muscle pull sa hinaharap?
-Ano ang mga palatandaan ng malubhang muscle pull?</t>
+    <t>Napunit na kalamnan
+Paano gamutin ang napunit na kalamnan?
+Ano ang dapat gawin kapag may napunit na kalamnan?
+Mga hakbang sa paggamot ng napunit na kalamnan?
+Paano mabilis na gumaling ang napunit na kalamnan?
+Paano maalis ang sakit mula sa napunit na kalamnan?
+Anong gamot ang maaaring inumin para sa napunit na kalamnan?
+Paano maiwasan ang karagdagang pinsala sa napunit na kalamnan?
+Anong mga ehersisyo ang dapat gawin para sa napunit na kalamnan?</t>
   </si>
   <si>
     <t>Pahingahin ang apektadong kalamnan, maglagay ng yelo, gumamit ng elastic na benda, at itaas ang kalamnan. Uminom ng pain relievers kung kinakailangan at iwasan ang mabigat na aktibidad.
@@ -2079,7 +2143,8 @@
     <t>Sunburn is caused by excessive exposure to UV radiation from the sun, ranging from mild to severe depending on the depth of the damage. Causes include prolonged sun exposure, not using sunscreen, or using expired sunscreen.</t>
   </si>
   <si>
-    <t>How to treat sunburn?
+    <t>Sunburn
+How to treat sunburn?
 What to do for sunburn?
 Best way to relieve sunburn pain?
 Sunburn treatment advice?
@@ -2107,7 +2172,8 @@
     <t>Ang sunburn ay sanhi ng sobrang pagkakalantad sa ultraviolet (UV) radiation mula sa araw. Maaari itong mag-iba mula sa mild hanggang severe depende sa pinsala. Karaniwang sanhi ay sobrang pagkakalantad sa araw, hindi paggamit ng sunscreen, o paggamit ng expired na sunscreen.</t>
   </si>
   <si>
-    <t>Paano gamutin ang sunburn?
+    <t>Sunburn
+Paano gamutin ang sunburn?
 Ano ang dapat gawin kapag may sunburn?
 Ano ang pinakamainam na gawin upang maibsan ang sakit ng sunburn?
 Mga hakbang sa paggamot ng sunburn?
@@ -2149,7 +2215,8 @@
     <t>Strains are injuries to muscles or tendons, which are tough bands of tissue that connect muscles to bones. They occur when a muscle or tendon is overstretched or torn. Common causes of strains include: Overuse: Overusing a muscle or tendon can lead to strain. Sudden movements: Sudden, forceful movements can strain muscles or tendons. Poor posture: Poor posture can put undue stress on muscles and tendons. Muscle weakness: Weak muscles are more susceptible to strains.</t>
   </si>
   <si>
-    <t>How to treat muscle strain?
+    <t>Strain
+How to treat muscle strain?
 What to do if I have a strain?
 Best way to treat muscle strains?
 Strain treatment advice?
@@ -2172,19 +2239,19 @@
 https://www.verywellhealth.com/sprains-and-strains-2548839</t>
   </si>
   <si>
+    <t>Paghilab ng kalamnan</t>
+  </si>
+  <si>
     <t>Pilay ng kalamnan ay mga pinsala sa mga kalamnan o tendon, na mga matigas na banda ng tissue na nagkokonekta sa mga kalamnan sa mga buto. Nangyayari ang mga ito kapag ang isang kalamnan o tendon ay naunat nang sobra o napunit. Ang mga karaniwang sanhi ng pilay ng kalamnan ay kinabibilangan ng: Pag-abuso: Ang pag-abuso sa isang kalamnan o tendon ay maaaring humantong sa pilay. Biglang mga galaw: Ang biglang, malalakas na galaw ay maaaring mag-strain sa mga kalamnan o tendon. Masamang postura: Ang masamang postura ay maaaring maglagay ng hindi nararapat na stress sa mga kalamnan at tendon. Kahinaan ng kalamnan: Ang mahina na mga kalamnan ay mas madaling kapitan ng mga pilay.</t>
   </si>
   <si>
-    <t>Paano gamutin ang muscle strain?
-Ano ang dapat gawin kapag may strain?
-Mga hakbang sa paggamot ng muscle strain?
-Paano mabilis na gumaling ang muscle strain?
-Paano maalis ang sakit mula sa muscle strain?
-Anong gamot ang maaaring inumin para sa muscle strain?
-Paano iwasan ang karagdagang pinsala sa muscle strain?
-Anong mga ehersisyo ang dapat gawin para sa muscle strain?
-Paano iwasan ang muscle strain sa hinaharap?
-Ano ang mga palatandaan ng malalang muscle strain?</t>
+    <t>Paghilab ng kalamnan
+Paano gamutin ang paghilab ng kalamnan?
+Ano ang dapat gawin kapag may paghilab ng kalamnan?
+Mga hakbang sa paggamot ng paghilab ng kalamnan?
+Paano mabilis na gumaling ang paghilab ng kalamnan?
+Paano maalis ang sakit mula sa paghilab ng kalamnan?
+Anong gamot ang maaaring inumin para sa paghilab ng kalamnan?</t>
   </si>
   <si>
     <t>Pahingahin ang na-pilay na kalamnan at iwasan ang mga aktibidad na nagdudulot ng sakit. Maglagay ng yelo sa apektadong lugar sa loob ng 15-20 minuto nang ilang beses sa isang araw. Gumamit ng elastic na benda upang i-compress ang lugar, at itaas ito upang mabawasan ang pamamaga. Ang mga over-the-counter na painkillers ay maaaring makatulong sa pamamahala ng sakit.
@@ -2208,13 +2275,14 @@
     </r>
   </si>
   <si>
-    <t>Chemical Burn</t>
+    <t>Chemical burn</t>
   </si>
   <si>
     <t>Chemical burns are injuries caused by contact with corrosive substances, such as acids or bases, which can damage the skin and underlying tissues. Common causes include industrial accidents, laboratory mishaps, household chemicals (e.g., bleach, drain cleaners), and accidental ingestion of harmful substances.</t>
   </si>
   <si>
-    <t>What to do for a chemical burn?
+    <t>Chemical burn
+What to do for a chemical burn?
 How to treat chemical burns?
 Chemical burn treatment advice?
 How to relieve chemical burn pain?
@@ -2245,19 +2313,23 @@
     </r>
   </si>
   <si>
+    <t>Sunog ng kemikal</t>
+  </si>
+  <si>
     <t>Ang sunog ng kemikal ay sanhi ng pagkakadikit sa mga corrosive substances tulad ng acid o base, na maaaring makapinsala sa balat at mga underlying tissue. Karaniwang sanhi ay mga aksidente sa industriya, laboratoryo, mga kemikal sa bahay, at hindi sinasadyang paglunok ng mapanganib na kemikal.</t>
   </si>
   <si>
-    <t>Paano gamutin ang kemikal na paso?
-Ano ang dapat gawin kapag may kemikal na paso?
-Mga hakbang sa paggamot ng kemikal na paso?
-Paano maibsan ang sakit mula sa kemikal na paso?
-Ano ang pinakamainam na gawin upang gumaling ang kemikal na paso?
-Paano linisin ang sugat mula sa kemikal na paso?
-Anong gamot ang maaaring ilagay sa kemikal na paso?
-Gaano katagal ang paggaling ng kemikal na paso?
-Paano maiwasan ang karagdagang pinsala mula sa kemikal na paso?
-Ano ang mga palatandaan ng malubhang kemikal na paso?</t>
+    <t>Sunog ng kemikal
+Paano gamutin ang sunog ng kemikal?
+Ano ang dapat gawin kapag may sunog ng kemikal?
+Mga hakbang sa paggamot ng sunog ng kemikal?
+Paano maibsan ang sakit mula sa sunog ng kemikal?
+Ano ang pinakamainam na gawin upang gumaling ang sunog ng kemikal?
+Paano linisin ang sugat mula sa sunog ng kemikal?
+Anong gamot ang maaaring ilagay sa sunog ng kemikal?
+Gaano katagal ang paggaling ng sunog ng kemikal?
+Paano maiwasan ang karagdagang pinsala mula sa sunog ng kemikal?
+Ano ang mga palatandaan ng malubhang sunog ng kemikal?</t>
   </si>
   <si>
     <t xml:space="preserve">Agad na banlawan ang apektadong bahagi ng tubig sa loob ng hindi bababa sa 20 minuto. Alisin ang maruming damit, takpan ang paso ng sterile na benda, at iwasang maglagay ng mga creams o ointments maliban kung inutos ng healthcare provider. Magpakonsulta agad sa doktor.
@@ -2286,7 +2358,8 @@
     <t>A rash is a skin condition characterized by changes in skin appearance, often involving redness, itching, or bumps. Causes include allergies, infections, medications, irritants, and underlying conditions such as eczema or psoriasis.</t>
   </si>
   <si>
-    <t>How to treat a rash?
+    <t>Rash
+How to treat a rash?
 What to do for a rash?
 Best way to relieve rash?
 Rash treatment advice?
@@ -2314,7 +2387,8 @@
     <t>Ang rash ay isang kondisyon sa balat na may kasamang pamumula, pangangati, o mga bukol. Maaaring sanhi ito ng mga alerdyi, impeksyon, gamot, irritants, o mga kondisyon sa balat tulad ng eksema at psoriasis.</t>
   </si>
   <si>
-    <t>Paano gamutin ang pantal?
+    <t>Pantal
+Paano gamutin ang pantal?
 Ano ang dapat gawin kapag may pantal?
 Ano ang pinakamainam na gawin upang maibsan ang pantal?
 Mga hakbang sa paggamot ng pantal?
@@ -2331,13 +2405,14 @@
 Linisin ang lugar ng maingat, maglagay ng anti-itch cream, at iwasan ang mga irritants. Humingi ng medikal na payo kung ang pantal ay kumakalat o hindi bumubuti.</t>
   </si>
   <si>
-    <t>Snake Bite</t>
+    <t>Snake bite</t>
   </si>
   <si>
     <t>A snakebite is a medical emergency caused by a snake's fangs penetrating the skin and injecting venom. Severity depends on factors such as snake type, bite location, and venom quantity. Common causes of snakebites include accidental encounters and defensive behavior of snakes. Symptoms include pain, swelling, nausea, difficulty breathing, and neurological symptoms like numbness or paralysis.</t>
   </si>
   <si>
-    <t>What to do if bitten by a snake?
+    <t>Snake bite
+What to do if bitten by a snake?
 How to treat a snake bite?
 Snake bite treatment advice?
 How to manage a snake bite?
@@ -2368,13 +2443,14 @@
     </r>
   </si>
   <si>
-    <t>Kagat ng Ahas</t>
+    <t>Kagat ng ahas</t>
   </si>
   <si>
     <t>Ang kagat ng ahas ay isang medikal na emerhensiya na nangyayari kapag ang mga ngipin ng ahas ay tumusok sa balat at nag-inject ng lason. Ang kalubhaan ay nakadepende sa uri ng ahas, lokasyon ng kagat, at dami ng lason. Karaniwang sanhi ay aksidenteng pagkikita at pagtatanggol ng mga ahas. Ang mga sintomas ay sakit, pamamaga, pagduduwal, hirap sa paghinga, at sintomas ng neurological tulad ng pamamanhid o paralisis.</t>
   </si>
   <si>
-    <t>Paano gamutin ang kagat ng ahas?
+    <t>Kagat ng ahas
+Paano gamutin ang kagat ng ahas?
 Ano ang dapat gawin kung nakagat ng ahas?
 Mga hakbang sa paggamot ng kagat ng ahas?
 Paano pamahalaan ang kagat ng ahas?
@@ -2411,7 +2487,8 @@
     <t>Bruises are caused by damage to blood vessels beneath the skin, leading to bleeding and discoloration. They are often referred to as `contusions.` Common causes of bruises include: Trauma: Injuries from falls, bumps, or collisions can cause bruises. Sports injuries: Contact sports or accidents during physical activity can lead to bruises. Medical conditions: Certain medical conditions, such as blood clotting disorders or easy bruising syndrome, can increase the risk of bruising. Medication side effects: Some medications can cause bruising as a side effect.</t>
   </si>
   <si>
-    <t>How to treat a bruise?
+    <t>Bruise
+How to treat a bruise?
 What to do for a bruise?
 Best way to heal bruises?
 Bruise treatment advice?
@@ -2453,7 +2530,8 @@
     <t>Galos ay dulot ng pinsala sa mga blood vessel sa ilalim ng balat, na nagreresulta sa pagdurugo at pagkaitim. Kadalasang tinatawag itong `contusions`. Ang mga karaniwang sanhi ng galos ay kinabibilangan ng: Trauma: Ang mga pinsala mula sa pagbagsak, pagkabunggo, o pagbangga ay maaaring magdulot ng galos. Mga pinsala sa sports: Ang mga contact sports o aksidente sa panahon ng pisikal na aktibidad ay maaaring humantong sa galos. Mga kondisyong medikal: Ang ilang mga kondisyong medikal, tulad ng mga disorder sa pagdugo ng dugo o madaling magkagalos na syndrome, ay maaaring magpataas ng panganib ng galos.</t>
   </si>
   <si>
-    <t>Paano gamutin ang pasa?
+    <t>Pasa
+Paano gamutin ang pasa?
 Ano ang dapat gawin kapag may pasa?
 Ano ang pinakamainam na gawin upang gumaling ang pasa?
 Mga hakbang sa paggamot ng pasa?
@@ -2495,7 +2573,8 @@
     <t>A fracture is a break or crack in a bone. Fractures can range from a simple hairline crack to a complete break. Common causes include accidents, sports injuries, osteoporosis, and medical conditions like bone cancer or infections.</t>
   </si>
   <si>
-    <t>What to do for a fracture?
+    <t>Fracture
+What to do for a fracture?
 How to treat a broken bone?
 Fracture treatment advice?
 Best way to manage a fracture?
@@ -2525,13 +2604,14 @@
     </r>
   </si>
   <si>
-    <t>Fraktura</t>
+    <t>Bali</t>
   </si>
   <si>
     <t>Ang bali ay isang pagbasag o pag-crack sa isang buto. Maaaring mag-iba mula sa isang simpleng hairline crack hanggang sa kumpletong pagbasag. Ang mga karaniwang sanhi ay aksidente, mga pinsala sa sports, osteoporosis, at mga kondisyong medikal tulad ng kanser sa buto o impeksyon.</t>
   </si>
   <si>
-    <t>Paano gamutin ang bali?
+    <t>Bali
+Paano gamutin ang bali?
 Ano ang dapat gawin para sa bali?
 Mga hakbang sa paggamot ng bali?
 Paano pinakamahusay na pamahalaan ang bali?
@@ -2568,7 +2648,8 @@
     <t>Stroke is a medical emergency that occurs when the blood supply to the brain is interrupted or reduced, leading to damage or death of brain cells. Symptoms include sudden numbness or weakness (especially on one side), confusion, trouble speaking or understanding, vision problems, severe headaches, and loss of balance.</t>
   </si>
   <si>
-    <t>What to do if someone has a stroke?
+    <t>Stroke
+What to do if someone has a stroke?
 How to treat a stroke?
 Stroke first aid advice?
 Best way to help during a stroke?
@@ -2589,19 +2670,23 @@
     <t>https://www.mayoclinic.org/diseases-conditions/stroke/multimedia/vid-20530787https://www.ninds.nih.gov/health-information/stroke/assess-and-treat/nih-stroke-scale</t>
   </si>
   <si>
-    <t>Ang stroke ay isang medikal na emerhensiya na nangyayari kapag ang suplay ng dugo sa utak ay naantala o nabawasan, na nagdudulot ng pagkamatay o pagkasira ng mga selula ng utak. Ang mga sintomas ay biglaang pamamanhid o panghihina (lalo na sa isang bahagi ng katawan), pagkalito, problema sa pagsasalita o pag-unawa, mga problema sa paningin, matinding sakit ng ulo, at pagkawala ng balanse.</t>
-  </si>
-  <si>
-    <t>Paano tumugon kung mayroong stroke ang isang tao?
-Ano ang dapat gawin kung may stroke ang isang tao?
-Ano ang mga palatandaan ng stroke?
-Paano gamutin ang stroke?
-Mga hakbang sa unang lunas para sa stroke?
-Paano makilala ang stroke?
-Ano ang pinakamainam na gawin habang may stroke?
-Paano mas mabilis na makakuha ng tulong sa stroke?
-Ano ang mga emergency steps para sa stroke?
-Anong gamot ang maaaring ibigay sa pasyenteng may stroke?</t>
+    <t>Atake sa utak</t>
+  </si>
+  <si>
+    <t>Ang atake sa utak ay isang medikal na emerhensiya na nangyayari kapag ang suplay ng dugo sa utak ay naantala o nabawasan, na nagdudulot ng pagkamatay o pagkasira ng mga selula ng utak. Ang mga sintomas ay biglaang pamamanhid o panghihina (lalo na sa isang bahagi ng katawan), pagkalito, problema sa pagsasalita o pag-unawa, mga problema sa paningin, matinding sakit ng ulo, at pagkawala ng balanse.</t>
+  </si>
+  <si>
+    <t>Atake sa utak
+Paano tumugon kung mayroong atake sa utak ang isang tao?
+Ano ang dapat gawin kung may atake sa utak ang isang tao?
+Ano ang mga palatandaan ng atake sa utak?
+Paano gamutin ang atake sa utak?
+Mga hakbang sa unang lunas para sa atake sa utak?
+Paano makilala ang atake sa utak?
+Ano ang pinakamainam na gawin habang may atake sa utak?
+Paano mas mabilis na makakuha ng tulong sa atake sa utak?
+Ano ang mga emergency steps para sa atake sa utak?
+Anong gamot ang maaaring ibigay sa pasyenteng may atake sa utak?</t>
   </si>
   <si>
     <t>Kung sa tingin mo ay may stroke ang isang tao, tumawag agad ng emergency services. Hayaang humiga ang tao na may bahagyang nakataas ang ulo. Bantayan ang kanilang paghinga at maging handa na magsagawa ng CPR kung kinakailangan.
@@ -2616,7 +2701,8 @@
     <t>Bleeding is the loss of blood from the body. It can occur from various causes, ranging from minor cuts to serious injuries or medical conditions. Common causes of bleeding: Injuries: Cuts, scrapes, punctures, or other injuries can cause bleeding. Medical procedures: Surgical procedures, biopsies, or other medical procedures can lead to bleeding. Medical conditions: Certain medical conditions, such as blood clotting disorders or ulcers, can cause bleeding. Accidental injuries: Accidents involving sharp objects or machinery can result in bleeding.</t>
   </si>
   <si>
-    <t>How to stop bleeding?
+    <t>Bleeding
+How to stop bleeding?
 What to do if I am bleeding?
 Best way to stop bleeding?
 Bleeding treatment advice?
@@ -2643,7 +2729,8 @@
     <t>Pagdurugo ay ang pagkawala ng dugo mula sa katawan. Maaari itong mangyari dahil sa iba't ibang dahilan, mula sa maliliit na hiwa hanggang sa malubhang pinsala o mga kondisyong medikal. Mga karaniwang sanhi ng pagdurugo: Mga pinsala: Ang mga hiwa, gasgas, pagtusok, o iba pang pinsala ay maaaring magdulot ng pagdurugo. Mga pamamaraang medikal: Ang mga surgical procedure, biopsy, o iba pang pamamaraang medikal ay maaaring humantong sa pagdurugo. Mga kondisyong medikal: Ang ilang mga kondisyong medikal, tulad ng mga disorder sa pagdugo ng dugo o mga ulser, ay maaaring magdulot ng pagdurugo. Mga aksidenteng pinsala: Ang mga aksidente na kinasasangkutan ng matatalim na bagay o makinarya ay maaaring magresulta sa pagdurugo.</t>
   </si>
   <si>
-    <t>Paano itigil ang pagdurugo?
+    <t>Pagdurugo
+Paano itigil ang pagdurugo?
 Ano ang dapat gawin kung ako ay dumudugo?
 Ano ang pinakamainam na gawin upang itigil ang pagdurugo?
 Mga hakbang sa paggamot ng pagdurugo?
@@ -2666,7 +2753,8 @@
     <t>Fever is a condition in which the body's temperature is elevated above normal. It's a common symptom of many illnesses and is a natural response to infection or inflammation. Symptoms of fever: Elevated temperature: A temperature above normal, typically measured in degrees Fahrenheit or Celsius. Chills: Feeling cold or shivering. Sweating: Sweating excessively. Fatigue: Feeling tired or weak. Loss of appetite: Loss of interest in eating. Headache: A headache. Muscle aches: Aching muscles or joints.</t>
   </si>
   <si>
-    <t>How to reduce a fever?
+    <t>Fever
+How to reduce a fever?
 What to do for a fever?
 Best way to bring down fever?
 Fever treatment advice?
@@ -2696,7 +2784,8 @@
     <t>Lagnat ay isang kondisyon kung saan ang temperatura ng katawan ay mas mataas kaysa sa normal. Ito ay isang karaniwang sintomas ng maraming sakit at isang natural na tugon sa impeksyon o pamamaga. Mga sintomas ng lagnat: Mataas na temperatura: Isang temperatura na mas mataas kaysa sa normal, karaniwang sinusukat sa degrees Fahrenheit o Celsius. Panginginig: Pakiramdam na malamig o nangangatog. Pagpapawis: Pagpapawis nang sobra. Pagod: Pakiramdam na pagod o mahina. Pagkawala ng gana: Pagkawala ng interes sa pagkain. Sakit ng ulo: Sakit ng ulo. Pananakit ng kalamnan: Pananakit ng mga kalamnan o kasukasuan.</t>
   </si>
   <si>
-    <t>Paano bawasan ang lagnat?
+    <t>Lagnat
+Paano bawasan ang lagnat?
 Ano ang dapat gawin para sa lagnat?
 Ano ang pinakamainam na gawin upang pababain ang lagnat?
 Mga hakbang sa paggamot ng lagnat?
@@ -3161,22 +3250,22 @@
         <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -3200,25 +3289,25 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -3242,25 +3331,25 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -3284,10 +3373,10 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>36</v>
@@ -3329,7 +3418,7 @@
         <v>41</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>42</v>
@@ -3371,7 +3460,7 @@
         <v>47</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>48</v>
@@ -3413,7 +3502,7 @@
         <v>53</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>54</v>
@@ -3453,7 +3542,7 @@
         <v>58</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>59</v>
@@ -3493,7 +3582,7 @@
         <v>63</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>64</v>
@@ -3535,7 +3624,7 @@
         <v>69</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>70</v>
@@ -3577,7 +3666,7 @@
         <v>75</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>76</v>
@@ -3619,7 +3708,7 @@
         <v>81</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>82</v>
@@ -3661,7 +3750,7 @@
         <v>87</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>88</v>
@@ -3703,7 +3792,7 @@
         <v>87</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>93</v>
@@ -3745,7 +3834,7 @@
         <v>97</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>98</v>
@@ -3787,7 +3876,7 @@
         <v>103</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>104</v>
@@ -3829,7 +3918,7 @@
         <v>109</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>110</v>
@@ -3869,7 +3958,7 @@
         <v>114</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>115</v>
@@ -3909,7 +3998,7 @@
         <v>119</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>120</v>
@@ -3949,7 +4038,7 @@
         <v>124</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>125</v>
@@ -3989,7 +4078,7 @@
         <v>128</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>129</v>
@@ -4031,7 +4120,7 @@
         <v>128</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>134</v>
@@ -4073,7 +4162,7 @@
         <v>138</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>139</v>
@@ -4113,7 +4202,7 @@
         <v>143</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>144</v>
@@ -4153,7 +4242,7 @@
         <v>148</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>149</v>
@@ -4195,7 +4284,7 @@
         <v>154</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>155</v>
@@ -4237,7 +4326,7 @@
         <v>160</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>161</v>
@@ -4277,7 +4366,7 @@
         <v>165</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>166</v>
@@ -4317,7 +4406,7 @@
         <v>170</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>171</v>
@@ -4359,7 +4448,7 @@
         <v>176</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>177</v>
@@ -4401,7 +4490,7 @@
         <v>181</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>182</v>
@@ -4443,7 +4532,7 @@
         <v>187</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>188</v>
@@ -4485,7 +4574,7 @@
         <v>193</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>194</v>
@@ -4527,7 +4616,7 @@
         <v>199</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>200</v>
@@ -4569,7 +4658,7 @@
         <v>205</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>206</v>
@@ -4611,7 +4700,7 @@
         <v>211</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>212</v>
@@ -4653,7 +4742,7 @@
         <v>217</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>218</v>
@@ -4693,7 +4782,7 @@
         <v>222</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>223</v>
@@ -4733,7 +4822,7 @@
         <v>227</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>228</v>
@@ -4775,22 +4864,22 @@
         <v>233</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>20</v>
+        <v>234</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>231</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
@@ -4814,25 +4903,25 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>20</v>
+        <v>234</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>79</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
@@ -4856,25 +4945,25 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>20</v>
+        <v>234</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>85</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
@@ -4898,25 +4987,25 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>20</v>
+        <v>234</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
@@ -4940,25 +5029,25 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>20</v>
+        <v>234</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
@@ -4982,25 +5071,25 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
@@ -5024,25 +5113,25 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
@@ -5066,25 +5155,25 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
@@ -5108,25 +5197,25 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C51" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G51" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>275</v>
       </c>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
@@ -5150,25 +5239,25 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
@@ -5192,25 +5281,25 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C53" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F53" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>285</v>
-      </c>
       <c r="G53" s="3" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
@@ -5234,25 +5323,25 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
@@ -5276,25 +5365,25 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D55" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F55" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="E55" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>295</v>
-      </c>
       <c r="G55" s="6" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
@@ -5318,25 +5407,25 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
@@ -5360,25 +5449,25 @@
     </row>
     <row r="57">
       <c r="A57" s="7" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
@@ -5402,23 +5491,23 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="F58" s="1"/>
       <c r="G58" s="3" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
@@ -5442,23 +5531,23 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="F59" s="1"/>
       <c r="G59" s="3" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
@@ -5482,25 +5571,25 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
@@ -5524,25 +5613,25 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
@@ -5566,25 +5655,25 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
@@ -5608,25 +5697,25 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
@@ -5650,23 +5739,23 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="3" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
@@ -5690,23 +5779,23 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="3" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
@@ -5730,25 +5819,25 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
@@ -5772,25 +5861,25 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
@@ -5814,23 +5903,23 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="3" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
@@ -5854,23 +5943,23 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="3" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
@@ -5894,25 +5983,25 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
@@ -5936,25 +6025,25 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
@@ -5978,23 +6067,23 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="F72" s="2"/>
       <c r="G72" s="3" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
@@ -6018,23 +6107,23 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" s="3" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
@@ -6058,23 +6147,23 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="3" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
@@ -6098,23 +6187,23 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" s="3" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
@@ -6138,25 +6227,25 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
@@ -6180,25 +6269,25 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
@@ -6222,25 +6311,25 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
@@ -6264,25 +6353,25 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>

--- a/models/astra-v3/training/dataset-clean-injury.xlsx
+++ b/models/astra-v3/training/dataset-clean-injury.xlsx
@@ -68,8 +68,15 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://my.clevelandclinic.org/health/diseases/17980-nasal-congestion</t>
+    </r>
+    <r>
       <rPr/>
-      <t xml:space="preserve">https://my.clevelandclinic.org/health/diseases/17980-nasal-congestion
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -779,9 +786,18 @@
 Increase fiber and water intake. Avoid straining and consult a healthcare provider to determine the cause. </t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mayoclinic.org/symptoms/rectal-bleeding/basics/definition/sym-20050740
-https://www.webmd.com/digestive-disorders/understanding-rectal-bleeding-basics
+    <r>
+      <rPr/>
+      <t xml:space="preserve">https://www.mayoclinic.org/symptoms/rectal-bleeding/basics/definition/sym-20050740
 </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://www.webmd.com/digestive-disorders/understanding-rectal-bleeding-basics</t>
+    </r>
   </si>
   <si>
     <t>Pagdurugo ng tumbong</t>
@@ -1492,8 +1508,18 @@
 Tumawag ng emergency services at subukang tumulong nang hindi inilalagay ang iyong sarili sa panganib. Gumamit ng poste o flotation device, at maging handa na magsagawa ng CPR.</t>
   </si>
   <si>
-    <t>https://www.mayoclinic.org/first-aid/first-aid-drowning/basics/art-20056649
-https://www.mountsinai.org/health-library/condition/drowning</t>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">https://www.mayoclinic.org/first-aid/first-aid-drowning/basics/art-20056649
+</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://www.mountsinai.org/health-library/condition/drowning</t>
+    </r>
   </si>
   <si>
     <t>Chest pain</t>
@@ -1523,36 +1549,6 @@
     <t>Garlic (Chest Pain)
 Ginger (Chest Pain)
 Almonds</t>
-  </si>
-  <si>
-    <t>https://www.mayoclinic.org/diseases-conditions/chest-pain/diagnosis-treatment/drc-20370842
-https://my.clevelandclinic.org/health/symptoms/21209-chest-pain</t>
-  </si>
-  <si>
-    <t>Pananakit ng dibdib</t>
-  </si>
-  <si>
-    <t>Injury</t>
-  </si>
-  <si>
-    <t>Ang pananakit ng dibdib ay maaaring sanhi ng iba't ibang salik tulad ng problema sa puso, isyu sa baga, o mga sakit sa pagtunaw. Ang mga sintomas ay maaaring kabilang ang matalim, mapurol, o nasusunog na pakiramdam sa dibdib, hirap sa paghinga, at pagkahilo. Ang agarang at angkop na aksyon ay makakatulong upang maiwasan ang seryosong komplikasyon.</t>
-  </si>
-  <si>
-    <t>Pananakit ng dibdib
-Ano ang gagawin para sa pananakit ng dibdib?
-Paano gamutin ang pananakit ng dibdib?
-Payo sa paggamot ng pananakit ng dibdib?
-Ano ang dapat gawin kung may pananakit ng dibdib?
-Pinakamabisang paraan para maibsan ang pananakit ng dibdib?
-Ano ang makakatulong sa pananakit ng dibdib?
-Paano maalis ang pananakit ng dibdib?
-First aid para sa pananakit ng dibdib?
-Paano alagaan ang pananakit ng dibdib?
-Tips for managing chest pain?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Kung makaranas ka ng pananakit sa dibdib, itigil ang anumang pisikal na aktibidad at magpahinga. Huminga ng malalim at subukang manatiling kalmado. Kung magpapatuloy ang sakit, humingi ng agarang medikal na tulong, dahil maaari itong senyales ng atake sa puso.
-Magpahinga at huminga ng mabagal at malalim. Humingi ng agarang medikal na atensyon kung ang sakit ay malubha o hindi nawawala.</t>
   </si>
   <si>
     <r>
@@ -1569,6 +1565,46 @@
     </r>
   </si>
   <si>
+    <t>Pananakit ng dibdib</t>
+  </si>
+  <si>
+    <t>Injury</t>
+  </si>
+  <si>
+    <t>Ang pananakit ng dibdib ay maaaring sanhi ng iba't ibang salik tulad ng problema sa puso, isyu sa baga, o mga sakit sa pagtunaw. Ang mga sintomas ay maaaring kabilang ang matalim, mapurol, o nasusunog na pakiramdam sa dibdib, hirap sa paghinga, at pagkahilo. Ang agarang at angkop na aksyon ay makakatulong upang maiwasan ang seryosong komplikasyon.</t>
+  </si>
+  <si>
+    <t>Pananakit ng dibdib
+Ano ang gagawin para sa pananakit ng dibdib?
+Paano gamutin ang pananakit ng dibdib?
+Payo sa paggamot ng pananakit ng dibdib?
+Ano ang dapat gawin kung may pananakit ng dibdib?
+Pinakamabisang paraan para maibsan ang pananakit ng dibdib?
+Ano ang makakatulong sa pananakit ng dibdib?
+Paano maalis ang pananakit ng dibdib?
+First aid para sa pananakit ng dibdib?
+Paano alagaan ang pananakit ng dibdib?
+Tips for managing chest pain?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kung makaranas ka ng pananakit sa dibdib, itigil ang anumang pisikal na aktibidad at magpahinga. Huminga ng malalim at subukang manatiling kalmado. Kung magpapatuloy ang sakit, humingi ng agarang medikal na tulong, dahil maaari itong senyales ng atake sa puso.
+Magpahinga at huminga ng mabagal at malalim. Humingi ng agarang medikal na atensyon kung ang sakit ay malubha o hindi nawawala.</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">https://www.mayoclinic.org/diseases-conditions/chest-pain/diagnosis-treatment/drc-20370842
+</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://my.clevelandclinic.org/health/symptoms/21209-chest-pain</t>
+    </r>
+  </si>
+  <si>
     <t>Dehydration</t>
   </si>
   <si>
@@ -1592,33 +1628,6 @@
     <t xml:space="preserve">Drink plenty of water or an oral rehydration solution (ORS). Rest in a cool environment and avoid physical activity until fully rehydrated. For severe dehydration, seek medical attention.
 Increase fluid intake, rest, and use an ORS if available. Seek medical help if dehydration is severe.
                                 </t>
-  </si>
-  <si>
-    <t>https://www.mayoclinic.org/diseases-conditions/dehydration/diagnosis-treatment/drc-20354092
-https://www.verywellhealth.com/dehydration-treatment-8704072</t>
-  </si>
-  <si>
-    <t>Pagkauhaw</t>
-  </si>
-  <si>
-    <t>Ang pagkauhaw ay nangyayari kapag ang katawan ay nawawalan ng mas maraming likido kaysa sa tinatanggap, na nagdudulot ng kawalan ng balanse. Ang mga sintomas ay maaaring kabilang ang tuyong bibig, uhaw, madilim na ihi, pagkahilo, at pagkapagod. Ang tamang hydration at agarang paggamot ay makakatulong upang maibalik ang balanse ng likido at maiwasan ang komplikasyon.</t>
-  </si>
-  <si>
-    <t>Pagkauhaw
-Ano ang gagawin para sa pagkauhaw?
-Paano gamutin ang pagkauhaw?
-Pinakamabisang paraan para ma-uhaw?
-Payo sa paggamot ng pagkauhaw?
-Paano pamahalaan ang pagkauhaw?
-Ano ang makakatulong sa pagkauhaw?
-Paano maalis ang pagkauhaw?
-First aid para sa pagkauhaw?
-Paano alagaan ang pagkauhaw?
-Tips for managing pagkauhaw?</t>
-  </si>
-  <si>
-    <t>Uminom ng maraming tubig o oral rehydration solution (ORS). Magpahinga sa isang malamig na kapaligiran at iwasan ang pisikal na aktibidad hanggang sa ganap na ma-rehydrate. Para sa malubhang dehydration, humingi ng medikal na tulong.
-Dadagan ang pag-inom ng likido, magpahinga, at gumamit ng ORS kung available. Humingi ng tulong medikal kung ang dehydration ay malubha.</t>
   </si>
   <si>
     <r>
@@ -1635,6 +1644,43 @@
     </r>
   </si>
   <si>
+    <t>Pagkauhaw</t>
+  </si>
+  <si>
+    <t>Ang pagkauhaw ay nangyayari kapag ang katawan ay nawawalan ng mas maraming likido kaysa sa tinatanggap, na nagdudulot ng kawalan ng balanse. Ang mga sintomas ay maaaring kabilang ang tuyong bibig, uhaw, madilim na ihi, pagkahilo, at pagkapagod. Ang tamang hydration at agarang paggamot ay makakatulong upang maibalik ang balanse ng likido at maiwasan ang komplikasyon.</t>
+  </si>
+  <si>
+    <t>Pagkauhaw
+Ano ang gagawin para sa pagkauhaw?
+Paano gamutin ang pagkauhaw?
+Pinakamabisang paraan para ma-uhaw?
+Payo sa paggamot ng pagkauhaw?
+Paano pamahalaan ang pagkauhaw?
+Ano ang makakatulong sa pagkauhaw?
+Paano maalis ang pagkauhaw?
+First aid para sa pagkauhaw?
+Paano alagaan ang pagkauhaw?
+Tips for managing pagkauhaw?</t>
+  </si>
+  <si>
+    <t>Uminom ng maraming tubig o oral rehydration solution (ORS). Magpahinga sa isang malamig na kapaligiran at iwasan ang pisikal na aktibidad hanggang sa ganap na ma-rehydrate. Para sa malubhang dehydration, humingi ng medikal na tulong.
+Dadagan ang pag-inom ng likido, magpahinga, at gumamit ng ORS kung available. Humingi ng tulong medikal kung ang dehydration ay malubha.</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">https://www.mayoclinic.org/diseases-conditions/dehydration/diagnosis-treatment/drc-20354092
+</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://www.verywellhealth.com/dehydration-treatment-8704072</t>
+    </r>
+  </si>
+  <si>
     <t>Cut</t>
   </si>
   <si>
@@ -1650,7 +1696,12 @@
 How to stop bleeding from a cut?
 First aid for cuts?
 How to clean a cut wound?
-How do I prevent infection in a cut?</t>
+How do I prevent infection in a cut?
+Wound
+i have wound
+Wounds
+i have wounds
+how to treat wounds</t>
   </si>
   <si>
     <t>Clean the cut with soap and water to avoid infection. Apply pressure to stop the bleeding, and once stopped, apply an antibiotic ointment. Cover the wound with a bandage and change it daily. If the cut is deep, seek medical help.</t>
@@ -1688,7 +1739,9 @@
 Anong gamot ang ilalagay sa hiwa?
 Paano pigilan ang pagdurugo mula sa hiwa?
 Ano ang dapat gawin upang maiwasan ang impeksyon sa hiwa?
-Mga hakbang sa paggamot ng hiwa?</t>
+Mga hakbang sa paggamot ng hiwa?
+sugat
+paano gamotin ang sugat</t>
   </si>
   <si>
     <t>Linisin ang hiwa gamit ang sabon at tubig upang maiwasan ang impeksyon. Lagyan ng presyon upang ihinto ang pagdurugo, at sa sandaling tumigil, maglagay ng antibiotic ointment. Takpan ang sugat ng benda at palitan ito araw-araw. Kung malalim ang hiwa, humingi ng medikal na tulong.</t>
@@ -2309,7 +2362,7 @@
         <color rgb="FF1155CC"/>
         <u/>
       </rPr>
-      <t>https://www.nhs.uk/conditions/acid-and-chemical-burns/</t>
+      <t>https://www.nhs.uk/conditions/acid-and-chemical-burns</t>
     </r>
   </si>
   <si>
@@ -2348,7 +2401,7 @@
         <color rgb="FF1155CC"/>
         <u/>
       </rPr>
-      <t>https://www.nhs.uk/conditions/acid-and-chemical-burns/</t>
+      <t>https://www.nhs.uk/conditions/acid-and-chemical-burns</t>
     </r>
   </si>
   <si>
@@ -2708,10 +2761,10 @@
 Bleeding treatment advice?
 How to manage bleeding?
 How to apply pressure to stop bleeding?
-What should I do for a bleeding wound?
+What should I do for a bleeding?
 How long does it take for bleeding to stop?
 First aid for bleeding?
-How to prevent infection in a bleeding wound?
+How to prevent infection in a bleeding?
 When should I consult a doctor for bleeding?</t>
   </si>
   <si>
@@ -2764,7 +2817,9 @@
 What should I avoid when I have a fever?
 When to seek medical attention for a fever?
 How to monitor a fever at home?
-What remedies can be used for a fever?</t>
+What remedies can be used for a fever?
+my temperature is high
+temperature</t>
   </si>
   <si>
     <t>Cool the burn with running water for at least 10 minutes. Avoid using ice. Cover the burn with a sterile gauze bandage. Do not apply butter or ointments to the burn. For pain relief, consider over-the-counter pain relievers like ibuprofen or acetaminophen.
@@ -2795,7 +2850,8 @@
 Ano ang dapat iwasan kapag may lagnat?
 Kailan dapat humingi ng tulong medikal para sa lagnat?
 Paano subaybayan ang lagnat sa bahay?
-Anong mga remedyo ang maaaring gamitin para sa lagnat?</t>
+Anong mga remedyo ang maaaring gamitin para sa lagnat?
+mataas nag temperatura ko</t>
   </si>
   <si>
     <t>Palamigin ang paso gamit ang umaagos na tubig nang hindi bababa sa 10 minuto. Iwasang gumamit ng yelo. Takpan ang paso ng sterile gauze bandage. Huwag maglagay ng mantikilya o mga pamahid sa paso. Para sa lunas sa pananakit, isaalang-alang ang mga over-the-counter na pain reliever tulad ng ibuprofen o acetaminophen.
@@ -2860,7 +2916,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2887,9 +2943,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3930,7 +3983,7 @@
         <v>112</v>
       </c>
       <c r="F20" s="1"/>
-      <c r="G20" s="1" t="s">
+      <c r="G20" s="3" t="s">
         <v>113</v>
       </c>
       <c r="H20" s="2"/>
@@ -4794,7 +4847,7 @@
         <v>225</v>
       </c>
       <c r="F41" s="2"/>
-      <c r="G41" s="1" t="s">
+      <c r="G41" s="3" t="s">
         <v>226</v>
       </c>
       <c r="H41" s="2"/>
@@ -4836,7 +4889,7 @@
       <c r="F42" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G42" s="3" t="s">
         <v>232</v>
       </c>
       <c r="H42" s="2"/>
@@ -4920,7 +4973,7 @@
       <c r="F44" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="G44" s="3" t="s">
         <v>243</v>
       </c>
       <c r="H44" s="2"/>
@@ -5836,7 +5889,7 @@
       <c r="F66" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="G66" s="8" t="s">
+      <c r="G66" s="3" t="s">
         <v>364</v>
       </c>
       <c r="H66" s="2"/>
@@ -6325,7 +6378,7 @@
       <c r="E78" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="F78" s="9" t="s">
+      <c r="F78" s="5" t="s">
         <v>423</v>
       </c>
       <c r="G78" s="8" t="s">
@@ -32200,44 +32253,48 @@
     <hyperlink r:id="rId15" ref="G16"/>
     <hyperlink r:id="rId16" ref="G17"/>
     <hyperlink r:id="rId17" ref="G19"/>
-    <hyperlink r:id="rId18" ref="G26"/>
-    <hyperlink r:id="rId19" ref="G28"/>
-    <hyperlink r:id="rId20" ref="G29"/>
-    <hyperlink r:id="rId21" ref="G31"/>
-    <hyperlink r:id="rId22" ref="G35"/>
-    <hyperlink r:id="rId23" ref="G37"/>
-    <hyperlink r:id="rId24" ref="G39"/>
-    <hyperlink r:id="rId25" ref="G40"/>
-    <hyperlink r:id="rId26" ref="G43"/>
-    <hyperlink r:id="rId27" ref="G45"/>
-    <hyperlink r:id="rId28" ref="G46"/>
-    <hyperlink r:id="rId29" ref="G47"/>
-    <hyperlink r:id="rId30" ref="G48"/>
-    <hyperlink r:id="rId31" ref="G49"/>
-    <hyperlink r:id="rId32" ref="G52"/>
-    <hyperlink r:id="rId33" ref="G53"/>
-    <hyperlink r:id="rId34" ref="G54"/>
-    <hyperlink r:id="rId35" ref="G56"/>
-    <hyperlink r:id="rId36" ref="G57"/>
-    <hyperlink r:id="rId37" ref="G58"/>
-    <hyperlink r:id="rId38" ref="G59"/>
-    <hyperlink r:id="rId39" ref="G61"/>
-    <hyperlink r:id="rId40" ref="G63"/>
-    <hyperlink r:id="rId41" ref="G64"/>
-    <hyperlink r:id="rId42" ref="G65"/>
-    <hyperlink r:id="rId43" ref="G66"/>
-    <hyperlink r:id="rId44" ref="G67"/>
-    <hyperlink r:id="rId45" ref="G68"/>
-    <hyperlink r:id="rId46" ref="G69"/>
-    <hyperlink r:id="rId47" ref="G70"/>
-    <hyperlink r:id="rId48" ref="G71"/>
-    <hyperlink r:id="rId49" ref="G72"/>
-    <hyperlink r:id="rId50" ref="G73"/>
-    <hyperlink r:id="rId51" ref="G74"/>
-    <hyperlink r:id="rId52" ref="G75"/>
-    <hyperlink r:id="rId53" ref="G78"/>
-    <hyperlink r:id="rId54" ref="G79"/>
+    <hyperlink r:id="rId18" ref="G20"/>
+    <hyperlink r:id="rId19" ref="G26"/>
+    <hyperlink r:id="rId20" ref="G28"/>
+    <hyperlink r:id="rId21" ref="G29"/>
+    <hyperlink r:id="rId22" ref="G31"/>
+    <hyperlink r:id="rId23" ref="G35"/>
+    <hyperlink r:id="rId24" ref="G37"/>
+    <hyperlink r:id="rId25" ref="G39"/>
+    <hyperlink r:id="rId26" ref="G40"/>
+    <hyperlink r:id="rId27" ref="G41"/>
+    <hyperlink r:id="rId28" ref="G42"/>
+    <hyperlink r:id="rId29" ref="G43"/>
+    <hyperlink r:id="rId30" ref="G44"/>
+    <hyperlink r:id="rId31" ref="G45"/>
+    <hyperlink r:id="rId32" ref="G46"/>
+    <hyperlink r:id="rId33" ref="G47"/>
+    <hyperlink r:id="rId34" ref="G48"/>
+    <hyperlink r:id="rId35" ref="G49"/>
+    <hyperlink r:id="rId36" ref="G52"/>
+    <hyperlink r:id="rId37" ref="G53"/>
+    <hyperlink r:id="rId38" ref="G54"/>
+    <hyperlink r:id="rId39" ref="G56"/>
+    <hyperlink r:id="rId40" ref="G57"/>
+    <hyperlink r:id="rId41" ref="G58"/>
+    <hyperlink r:id="rId42" ref="G59"/>
+    <hyperlink r:id="rId43" ref="G61"/>
+    <hyperlink r:id="rId44" ref="G63"/>
+    <hyperlink r:id="rId45" ref="G64"/>
+    <hyperlink r:id="rId46" ref="G65"/>
+    <hyperlink r:id="rId47" ref="G66"/>
+    <hyperlink r:id="rId48" ref="G67"/>
+    <hyperlink r:id="rId49" ref="G68"/>
+    <hyperlink r:id="rId50" ref="G69"/>
+    <hyperlink r:id="rId51" ref="G70"/>
+    <hyperlink r:id="rId52" ref="G71"/>
+    <hyperlink r:id="rId53" ref="G72"/>
+    <hyperlink r:id="rId54" ref="G73"/>
+    <hyperlink r:id="rId55" ref="G74"/>
+    <hyperlink r:id="rId56" ref="G75"/>
+    <hyperlink r:id="rId57" ref="G78"/>
+    <hyperlink r:id="rId58" ref="G79"/>
   </hyperlinks>
-  <drawing r:id="rId55"/>
+  <drawing r:id="rId59"/>
 </worksheet>
 </file>